--- a/HRBackend/sql/penta3d.xlsx
+++ b/HRBackend/sql/penta3d.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K346"/>
+  <dimension ref="A1:K316"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,25 +442,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C2" t="str">
-        <v>21-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
-        <v>08:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E2" t="str">
-        <v>18:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -477,25 +477,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C3" t="str">
-        <v>22-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
-        <v>08:16</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>17:33</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -512,25 +512,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C4" t="str">
-        <v>23-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
-        <v>07:58</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>19:57</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -547,25 +547,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C5" t="str">
-        <v>24-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
-        <v>08:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v>18:46</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -582,25 +582,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
-        <v>07:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>12:27</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v>04:33</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -617,16 +617,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C7" t="str">
-        <v>28-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
-        <v>08:06</v>
+        <v>07:52</v>
       </c>
       <c r="E7" t="str">
-        <v>17:48</v>
+        <v>17:37</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -652,25 +652,25 @@
         <v>3</v>
       </c>
       <c r="B8" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C8" t="str">
-        <v>29-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
-        <v>08:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <v>18:40</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -687,25 +687,25 @@
         <v>3</v>
       </c>
       <c r="B9" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C9" t="str">
-        <v>30-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v>08:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E9" t="str">
-        <v>20:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C10" t="str">
-        <v>31-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
-        <v>08:30</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="str">
-        <v>19:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -757,25 +757,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
-        <v>07:35</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v>18:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -792,25 +792,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C12" t="str">
-        <v>04-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
-        <v>08:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <v>18:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -827,25 +827,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C13" t="str">
-        <v>05-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
-        <v>08:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="str">
-        <v>18:36</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -862,25 +862,25 @@
         <v>3</v>
       </c>
       <c r="B14" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C14" t="str">
-        <v>06-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
-        <v>07:55</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v>19:58</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -897,25 +897,25 @@
         <v>3</v>
       </c>
       <c r="B15" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C15" t="str">
-        <v>07-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
-        <v>08:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E15" t="str">
-        <v>17:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -932,25 +932,25 @@
         <v>3</v>
       </c>
       <c r="B16" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
-        <v>07:31</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E16" t="str">
-        <v>18:19</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I16" t="str">
         <v/>
@@ -967,25 +967,25 @@
         <v>3</v>
       </c>
       <c r="B17" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C17" t="str">
-        <v>11-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
-        <v>07:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" t="str">
-        <v>18:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -1002,25 +1002,25 @@
         <v>3</v>
       </c>
       <c r="B18" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C18" t="str">
-        <v>12-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
-        <v>07:44</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E18" t="str">
-        <v>17:23</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1037,25 +1037,25 @@
         <v>3</v>
       </c>
       <c r="B19" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C19" t="str">
-        <v>13-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
-        <v>07:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E19" t="str">
-        <v>17:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1072,25 +1072,25 @@
         <v>3</v>
       </c>
       <c r="B20" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C20" t="str">
-        <v>14-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
-        <v>08:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" t="str">
-        <v>17:33</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1107,25 +1107,25 @@
         <v>3</v>
       </c>
       <c r="B21" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
-        <v>07:47</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" t="str">
-        <v>17:31</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1142,16 +1142,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="str">
-        <v>Farag penta</v>
+        <v>Farag</v>
       </c>
       <c r="C22" t="str">
-        <v>18-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
-        <v>07:59</v>
+        <v>07:44</v>
       </c>
       <c r="E22" t="str">
-        <v>18:36</v>
+        <v>17:15</v>
       </c>
       <c r="F22" t="str">
         <v/>
@@ -1174,28 +1174,28 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="str">
-        <v>Farag penta</v>
+        <v>Mai</v>
       </c>
       <c r="C23" t="str">
-        <v>19-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D23" t="str">
-        <v>07:46</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E23" t="str">
-        <v>17:35</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1209,22 +1209,22 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="str">
-        <v>Farag penta</v>
+        <v>Mai</v>
       </c>
       <c r="C24" t="str">
-        <v>20-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D24" t="str">
-        <v>08:01</v>
+        <v>09:21</v>
       </c>
       <c r="E24" t="str">
-        <v>17:15</v>
+        <v>17:05</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>00:11</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -1250,19 +1250,19 @@
         <v>Mai</v>
       </c>
       <c r="C25" t="str">
-        <v>21-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D25" t="str">
-        <v>09:34</v>
+        <v>09:12</v>
       </c>
       <c r="E25" t="str">
-        <v>16:39</v>
+        <v>17:18</v>
       </c>
       <c r="F25" t="str">
-        <v>00:24</v>
+        <v>00:02</v>
       </c>
       <c r="G25" t="str">
-        <v>00:21</v>
+        <v/>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1285,16 +1285,16 @@
         <v>Mai</v>
       </c>
       <c r="C26" t="str">
-        <v>22-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D26" t="str">
-        <v>09:35</v>
+        <v>08:59</v>
       </c>
       <c r="E26" t="str">
-        <v>17:20</v>
+        <v>17:13</v>
       </c>
       <c r="F26" t="str">
-        <v>00:25</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -1320,16 +1320,16 @@
         <v>Mai</v>
       </c>
       <c r="C27" t="str">
-        <v>23-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D27" t="str">
-        <v>09:06</v>
+        <v>09:12</v>
       </c>
       <c r="E27" t="str">
-        <v>17:00</v>
+        <v>17:01</v>
       </c>
       <c r="F27" t="str">
-        <v/>
+        <v>00:02</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -1355,16 +1355,16 @@
         <v>Mai</v>
       </c>
       <c r="C28" t="str">
-        <v>24-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D28" t="str">
-        <v>09:19</v>
+        <v>09:20</v>
       </c>
       <c r="E28" t="str">
-        <v>18:04</v>
+        <v>17:08</v>
       </c>
       <c r="F28" t="str">
-        <v>00:09</v>
+        <v>00:10</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -1390,19 +1390,19 @@
         <v>Mai</v>
       </c>
       <c r="C29" t="str">
-        <v>27-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D29" t="str">
-        <v>09:04</v>
+        <v>09:11</v>
       </c>
       <c r="E29" t="str">
-        <v>17:02</v>
+        <v>16:59</v>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1425,16 +1425,16 @@
         <v>Mai</v>
       </c>
       <c r="C30" t="str">
-        <v>28-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D30" t="str">
-        <v>09:35</v>
+        <v>09:11</v>
       </c>
       <c r="E30" t="str">
-        <v>17:17</v>
+        <v>17:06</v>
       </c>
       <c r="F30" t="str">
-        <v>00:25</v>
+        <v>00:01</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1460,19 +1460,19 @@
         <v>Mai</v>
       </c>
       <c r="C31" t="str">
-        <v>29-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D31" t="str">
-        <v>09:29</v>
+        <v>09:10</v>
       </c>
       <c r="E31" t="str">
-        <v>17:16</v>
+        <v>16:21</v>
       </c>
       <c r="F31" t="str">
-        <v>00:19</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v/>
+        <v>00:39</v>
       </c>
       <c r="H31" t="str">
         <v/>
@@ -1495,22 +1495,22 @@
         <v>Mai</v>
       </c>
       <c r="C32" t="str">
-        <v>30-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:18</v>
       </c>
       <c r="E32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:16</v>
       </c>
       <c r="F32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:08</v>
       </c>
       <c r="G32" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I32" t="str">
         <v/>
@@ -1530,16 +1530,16 @@
         <v>Mai</v>
       </c>
       <c r="C33" t="str">
-        <v>31-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D33" t="str">
-        <v>09:29</v>
+        <v>09:28</v>
       </c>
       <c r="E33" t="str">
-        <v>17:20</v>
+        <v>17:07</v>
       </c>
       <c r="F33" t="str">
-        <v>00:19</v>
+        <v>00:18</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1565,16 +1565,16 @@
         <v>Mai</v>
       </c>
       <c r="C34" t="str">
-        <v>03-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D34" t="str">
-        <v>09:29</v>
+        <v>09:28</v>
       </c>
       <c r="E34" t="str">
-        <v>17:11</v>
+        <v>17:07</v>
       </c>
       <c r="F34" t="str">
-        <v>00:19</v>
+        <v>00:18</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1600,16 +1600,16 @@
         <v>Mai</v>
       </c>
       <c r="C35" t="str">
-        <v>04-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D35" t="str">
-        <v>09:17</v>
+        <v>09:13</v>
       </c>
       <c r="E35" t="str">
-        <v>17:08</v>
+        <v>17:17</v>
       </c>
       <c r="F35" t="str">
-        <v>00:07</v>
+        <v>00:03</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1635,19 +1635,19 @@
         <v>Mai</v>
       </c>
       <c r="C36" t="str">
-        <v>05-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D36" t="str">
-        <v>09:03</v>
+        <v>09:01</v>
       </c>
       <c r="E36" t="str">
-        <v>17:58</v>
+        <v>16:33</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>00:27</v>
       </c>
       <c r="H36" t="str">
         <v/>
@@ -1670,16 +1670,16 @@
         <v>Mai</v>
       </c>
       <c r="C37" t="str">
-        <v>06-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D37" t="str">
-        <v>09:25</v>
+        <v>09:18</v>
       </c>
       <c r="E37" t="str">
-        <v>18:11</v>
+        <v>17:16</v>
       </c>
       <c r="F37" t="str">
-        <v>00:15</v>
+        <v>00:08</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1705,16 +1705,16 @@
         <v>Mai</v>
       </c>
       <c r="C38" t="str">
-        <v>07-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D38" t="str">
-        <v>09:00</v>
+        <v>09:19</v>
       </c>
       <c r="E38" t="str">
-        <v>17:04</v>
+        <v>17:57</v>
       </c>
       <c r="F38" t="str">
-        <v/>
+        <v>00:09</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1740,16 +1740,16 @@
         <v>Mai</v>
       </c>
       <c r="C39" t="str">
-        <v>10-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D39" t="str">
-        <v>08:57</v>
+        <v>09:14</v>
       </c>
       <c r="E39" t="str">
-        <v>17:04</v>
+        <v>17:36</v>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>00:04</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1775,16 +1775,16 @@
         <v>Mai</v>
       </c>
       <c r="C40" t="str">
-        <v>11-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D40" t="str">
-        <v>09:34</v>
+        <v>09:37</v>
       </c>
       <c r="E40" t="str">
-        <v>17:10</v>
+        <v>17:26</v>
       </c>
       <c r="F40" t="str">
-        <v>00:24</v>
+        <v>00:27</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1810,16 +1810,16 @@
         <v>Mai</v>
       </c>
       <c r="C41" t="str">
-        <v>12-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D41" t="str">
-        <v>09:13</v>
+        <v>09:23</v>
       </c>
       <c r="E41" t="str">
-        <v>17:04</v>
+        <v>17:25</v>
       </c>
       <c r="F41" t="str">
-        <v>00:03</v>
+        <v>00:13</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1845,19 +1845,19 @@
         <v>Mai</v>
       </c>
       <c r="C42" t="str">
-        <v>13-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D42" t="str">
-        <v>09:41</v>
+        <v>09:26</v>
       </c>
       <c r="E42" t="str">
-        <v>16:56</v>
+        <v>17:29</v>
       </c>
       <c r="F42" t="str">
-        <v>00:31</v>
+        <v>00:16</v>
       </c>
       <c r="G42" t="str">
-        <v>00:04</v>
+        <v/>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -1880,19 +1880,19 @@
         <v>Mai</v>
       </c>
       <c r="C43" t="str">
-        <v>14-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D43" t="str">
-        <v>09:09</v>
+        <v>09:16</v>
       </c>
       <c r="E43" t="str">
-        <v>16:36</v>
+        <v>17:11</v>
       </c>
       <c r="F43" t="str">
-        <v/>
+        <v>00:06</v>
       </c>
       <c r="G43" t="str">
-        <v>00:24</v>
+        <v/>
       </c>
       <c r="H43" t="str">
         <v/>
@@ -1909,28 +1909,28 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="str">
-        <v>Mai</v>
+        <v>Aaziz</v>
       </c>
       <c r="C44" t="str">
-        <v>17-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D44" t="str">
-        <v>09:29</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E44" t="str">
-        <v>16:59</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F44" t="str">
-        <v>00:19</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G44" t="str">
-        <v>00:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I44" t="str">
         <v/>
@@ -1944,28 +1944,28 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="str">
-        <v>Mai</v>
+        <v>Aaziz</v>
       </c>
       <c r="C45" t="str">
-        <v>18-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D45" t="str">
-        <v>09:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E45" t="str">
-        <v>17:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F45" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I45" t="str">
         <v/>
@@ -1979,28 +1979,28 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="str">
-        <v>Mai</v>
+        <v>Aaziz</v>
       </c>
       <c r="C46" t="str">
-        <v>19-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D46" t="str">
-        <v>09:24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E46" t="str">
-        <v>17:24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F46" t="str">
-        <v>00:14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I46" t="str">
         <v/>
@@ -2014,28 +2014,28 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="str">
-        <v>Mai</v>
+        <v>Aaziz</v>
       </c>
       <c r="C47" t="str">
-        <v>20-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D47" t="str">
-        <v>08:44</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E47" t="str">
-        <v>16:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G47" t="str">
-        <v>00:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I47" t="str">
         <v/>
@@ -2055,22 +2055,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C48" t="str">
-        <v>21-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D48" t="str">
-        <v>09:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E48" t="str">
-        <v>16:45</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F48" t="str">
-        <v>00:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G48" t="str">
-        <v>00:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H48" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I48" t="str">
         <v/>
@@ -2090,22 +2090,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C49" t="str">
-        <v>22-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D49" t="str">
-        <v>09:21</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E49" t="str">
-        <v>17:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F49" t="str">
-        <v>00:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H49" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I49" t="str">
         <v/>
@@ -2125,22 +2125,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C50" t="str">
-        <v>23-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D50" t="str">
-        <v>09:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E50" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F50" t="str">
-        <v>00:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H50" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I50" t="str">
         <v/>
@@ -2160,22 +2160,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C51" t="str">
-        <v>24-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D51" t="str">
-        <v>09:27</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E51" t="str">
-        <v>17:49</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F51" t="str">
-        <v>00:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H51" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I51" t="str">
         <v/>
@@ -2195,7 +2195,7 @@
         <v>Aaziz</v>
       </c>
       <c r="C52" t="str">
-        <v>27-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D52" t="str">
         <v xml:space="preserve"> </v>
@@ -2230,7 +2230,7 @@
         <v>Aaziz</v>
       </c>
       <c r="C53" t="str">
-        <v>28-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D53" t="str">
         <v xml:space="preserve"> </v>
@@ -2265,7 +2265,7 @@
         <v>Aaziz</v>
       </c>
       <c r="C54" t="str">
-        <v>29-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D54" t="str">
         <v xml:space="preserve"> </v>
@@ -2300,19 +2300,19 @@
         <v>Aaziz</v>
       </c>
       <c r="C55" t="str">
-        <v>30-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D55" t="str">
-        <v>08:59</v>
+        <v>09:12</v>
       </c>
       <c r="E55" t="str">
-        <v>17:06</v>
+        <v>16:50</v>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>00:02</v>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>00:10</v>
       </c>
       <c r="H55" t="str">
         <v/>
@@ -2335,19 +2335,19 @@
         <v>Aaziz</v>
       </c>
       <c r="C56" t="str">
-        <v>31-Aug-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D56" t="str">
-        <v>09:16</v>
+        <v>10:00</v>
       </c>
       <c r="E56" t="str">
-        <v>17:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F56" t="str">
-        <v>00:06</v>
+        <v>00:50</v>
       </c>
       <c r="G56" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H56" t="str">
         <v/>
@@ -2370,19 +2370,19 @@
         <v>Aaziz</v>
       </c>
       <c r="C57" t="str">
-        <v>03-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D57" t="str">
-        <v>09:20</v>
+        <v>09:08</v>
       </c>
       <c r="E57" t="str">
-        <v>17:03</v>
+        <v>16:59</v>
       </c>
       <c r="F57" t="str">
-        <v>00:10</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="H57" t="str">
         <v/>
@@ -2405,22 +2405,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C58" t="str">
-        <v>04-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D58" t="str">
-        <v>09:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E58" t="str">
-        <v>17:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F58" t="str">
-        <v>00:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G58" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H58" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I58" t="str">
         <v/>
@@ -2440,22 +2440,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C59" t="str">
-        <v>05-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D59" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:09</v>
       </c>
       <c r="E59" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:41</v>
       </c>
       <c r="F59" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G59" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H59" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I59" t="str">
         <v/>
@@ -2475,16 +2475,16 @@
         <v>Aaziz</v>
       </c>
       <c r="C60" t="str">
-        <v>06-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D60" t="str">
-        <v>09:20</v>
+        <v>09:34</v>
       </c>
       <c r="E60" t="str">
-        <v>18:32</v>
+        <v>17:44</v>
       </c>
       <c r="F60" t="str">
-        <v>00:10</v>
+        <v>00:24</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -2510,19 +2510,19 @@
         <v>Aaziz</v>
       </c>
       <c r="C61" t="str">
-        <v>07-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D61" t="str">
-        <v>09:07</v>
+        <v>09:46</v>
       </c>
       <c r="E61" t="str">
-        <v>16:59</v>
+        <v>18:03</v>
       </c>
       <c r="F61" t="str">
-        <v/>
+        <v>00:36</v>
       </c>
       <c r="G61" t="str">
-        <v>00:01</v>
+        <v/>
       </c>
       <c r="H61" t="str">
         <v/>
@@ -2545,22 +2545,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C62" t="str">
-        <v>10-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D62" t="str">
-        <v>09:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E62" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F62" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H62" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I62" t="str">
         <v/>
@@ -2580,22 +2580,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C63" t="str">
-        <v>11-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D63" t="str">
-        <v>08:57</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E63" t="str">
-        <v>10:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G63" t="str">
-        <v>06:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H63" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I63" t="str">
         <v/>
@@ -2615,22 +2615,22 @@
         <v>Aaziz</v>
       </c>
       <c r="C64" t="str">
-        <v>12-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D64" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:58</v>
       </c>
       <c r="E64" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:39</v>
       </c>
       <c r="F64" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G64" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:21</v>
       </c>
       <c r="H64" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I64" t="str">
         <v/>
@@ -2644,28 +2644,28 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65" t="str">
-        <v>Aaziz</v>
+        <v>Yasser</v>
       </c>
       <c r="C65" t="str">
-        <v>13-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D65" t="str">
-        <v>09:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E65" t="str">
-        <v>16:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F65" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G65" t="str">
-        <v>00:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H65" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I65" t="str">
         <v/>
@@ -2679,25 +2679,25 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="str">
-        <v>Aaziz</v>
+        <v>Yasser</v>
       </c>
       <c r="C66" t="str">
-        <v>14-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D66" t="str">
-        <v>08:56</v>
+        <v>11:50</v>
       </c>
       <c r="E66" t="str">
-        <v>16:35</v>
+        <v>14:15</v>
       </c>
       <c r="F66" t="str">
-        <v/>
+        <v>02:40</v>
       </c>
       <c r="G66" t="str">
-        <v>00:25</v>
+        <v>02:45</v>
       </c>
       <c r="H66" t="str">
         <v/>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="str">
-        <v>Aaziz</v>
+        <v>Yasser</v>
       </c>
       <c r="C67" t="str">
-        <v>17-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D67" t="str">
         <v xml:space="preserve"> </v>
@@ -2749,28 +2749,28 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="str">
-        <v>Aaziz</v>
+        <v>Yasser</v>
       </c>
       <c r="C68" t="str">
-        <v>18-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D68" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:10</v>
       </c>
       <c r="E68" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F68" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G68" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H68" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I68" t="str">
         <v/>
@@ -2784,28 +2784,28 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="str">
-        <v>Aaziz</v>
+        <v>Yasser</v>
       </c>
       <c r="C69" t="str">
-        <v>19-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D69" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:06</v>
       </c>
       <c r="E69" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F69" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H69" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I69" t="str">
         <v/>
@@ -2819,28 +2819,28 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" t="str">
-        <v>Aaziz</v>
+        <v>Yasser</v>
       </c>
       <c r="C70" t="str">
-        <v>20-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D70" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:20</v>
       </c>
       <c r="E70" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15:17</v>
       </c>
       <c r="F70" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:10</v>
       </c>
       <c r="G70" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:43</v>
       </c>
       <c r="H70" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I70" t="str">
         <v/>
@@ -2860,19 +2860,19 @@
         <v>Yasser</v>
       </c>
       <c r="C71" t="str">
-        <v>21-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D71" t="str">
-        <v>09:15</v>
+        <v>09:07</v>
       </c>
       <c r="E71" t="str">
-        <v>16:39</v>
+        <v>16:59</v>
       </c>
       <c r="F71" t="str">
-        <v>00:05</v>
+        <v/>
       </c>
       <c r="G71" t="str">
-        <v>00:21</v>
+        <v>00:01</v>
       </c>
       <c r="H71" t="str">
         <v/>
@@ -2895,22 +2895,22 @@
         <v>Yasser</v>
       </c>
       <c r="C72" t="str">
-        <v>22-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D72" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:06</v>
       </c>
       <c r="E72" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:06</v>
       </c>
       <c r="F72" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G72" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H72" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -2930,16 +2930,16 @@
         <v>Yasser</v>
       </c>
       <c r="C73" t="str">
-        <v>23-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D73" t="str">
-        <v>09:04</v>
+        <v>09:18</v>
       </c>
       <c r="E73" t="str">
-        <v>17:00</v>
+        <v>17:07</v>
       </c>
       <c r="F73" t="str">
-        <v/>
+        <v>00:08</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -2965,16 +2965,16 @@
         <v>Yasser</v>
       </c>
       <c r="C74" t="str">
-        <v>24-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D74" t="str">
-        <v>09:14</v>
+        <v>09:22</v>
       </c>
       <c r="E74" t="str">
-        <v>17:23</v>
+        <v>17:10</v>
       </c>
       <c r="F74" t="str">
-        <v>00:04</v>
+        <v>00:12</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -3000,19 +3000,19 @@
         <v>Yasser</v>
       </c>
       <c r="C75" t="str">
-        <v>27-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D75" t="str">
-        <v>09:06</v>
+        <v>09:25</v>
       </c>
       <c r="E75" t="str">
-        <v>17:02</v>
+        <v>16:40</v>
       </c>
       <c r="F75" t="str">
-        <v/>
+        <v>00:15</v>
       </c>
       <c r="G75" t="str">
-        <v/>
+        <v>00:20</v>
       </c>
       <c r="H75" t="str">
         <v/>
@@ -3035,16 +3035,16 @@
         <v>Yasser</v>
       </c>
       <c r="C76" t="str">
-        <v>28-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D76" t="str">
-        <v>09:12</v>
+        <v>09:06</v>
       </c>
       <c r="E76" t="str">
-        <v>17:04</v>
+        <v>17:06</v>
       </c>
       <c r="F76" t="str">
-        <v>00:02</v>
+        <v/>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -3070,16 +3070,16 @@
         <v>Yasser</v>
       </c>
       <c r="C77" t="str">
-        <v>29-Aug-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D77" t="str">
-        <v>09:25</v>
+        <v>09:10</v>
       </c>
       <c r="E77" t="str">
-        <v>17:10</v>
+        <v>17:17</v>
       </c>
       <c r="F77" t="str">
-        <v>00:15</v>
+        <v/>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -3105,16 +3105,16 @@
         <v>Yasser</v>
       </c>
       <c r="C78" t="str">
-        <v>30-Aug-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D78" t="str">
-        <v>09:25</v>
+        <v>09:11</v>
       </c>
       <c r="E78" t="str">
-        <v>17:05</v>
+        <v>17:04</v>
       </c>
       <c r="F78" t="str">
-        <v>00:15</v>
+        <v>00:01</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -3140,16 +3140,16 @@
         <v>Yasser</v>
       </c>
       <c r="C79" t="str">
-        <v>31-Aug-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D79" t="str">
-        <v>09:16</v>
+        <v>08:59</v>
       </c>
       <c r="E79" t="str">
-        <v>17:19</v>
+        <v>17:16</v>
       </c>
       <c r="F79" t="str">
-        <v>00:06</v>
+        <v/>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -3175,16 +3175,16 @@
         <v>Yasser</v>
       </c>
       <c r="C80" t="str">
-        <v>03-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D80" t="str">
-        <v>09:19</v>
+        <v>09:16</v>
       </c>
       <c r="E80" t="str">
-        <v>17:11</v>
+        <v>17:19</v>
       </c>
       <c r="F80" t="str">
-        <v>00:09</v>
+        <v>00:06</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -3210,16 +3210,16 @@
         <v>Yasser</v>
       </c>
       <c r="C81" t="str">
-        <v>04-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D81" t="str">
-        <v>09:17</v>
+        <v>09:19</v>
       </c>
       <c r="E81" t="str">
-        <v>17:08</v>
+        <v>17:03</v>
       </c>
       <c r="F81" t="str">
-        <v>00:07</v>
+        <v>00:09</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -3245,22 +3245,22 @@
         <v>Yasser</v>
       </c>
       <c r="C82" t="str">
-        <v>05-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D82" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:18</v>
       </c>
       <c r="E82" t="str">
-        <v xml:space="preserve"> </v>
+        <v>14:53</v>
       </c>
       <c r="F82" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:08</v>
       </c>
       <c r="G82" t="str">
-        <v xml:space="preserve"> </v>
+        <v>02:07</v>
       </c>
       <c r="H82" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I82" t="str">
         <v/>
@@ -3280,13 +3280,13 @@
         <v>Yasser</v>
       </c>
       <c r="C83" t="str">
-        <v>06-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D83" t="str">
-        <v>09:01</v>
+        <v>09:09</v>
       </c>
       <c r="E83" t="str">
-        <v>18:12</v>
+        <v>17:09</v>
       </c>
       <c r="F83" t="str">
         <v/>
@@ -3315,13 +3315,13 @@
         <v>Yasser</v>
       </c>
       <c r="C84" t="str">
-        <v>07-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D84" t="str">
-        <v>09:07</v>
+        <v>09:10</v>
       </c>
       <c r="E84" t="str">
-        <v>17:04</v>
+        <v>17:15</v>
       </c>
       <c r="F84" t="str">
         <v/>
@@ -3350,22 +3350,22 @@
         <v>Yasser</v>
       </c>
       <c r="C85" t="str">
-        <v>10-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D85" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E85" t="str">
-        <v>17:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F85" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G85" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H85" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I85" t="str">
         <v/>
@@ -3379,28 +3379,28 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C86" t="str">
-        <v>11-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D86" t="str">
-        <v>09:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E86" t="str">
-        <v>16:24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F86" t="str">
-        <v>00:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G86" t="str">
-        <v>00:36</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H86" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I86" t="str">
         <v/>
@@ -3414,28 +3414,28 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C87" t="str">
-        <v>12-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D87" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E87" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F87" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G87" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H87" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I87" t="str">
         <v/>
@@ -3449,28 +3449,28 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C88" t="str">
-        <v>13-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D88" t="str">
-        <v>09:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E88" t="str">
-        <v>16:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F88" t="str">
-        <v>00:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G88" t="str">
-        <v>00:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H88" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I88" t="str">
         <v/>
@@ -3484,28 +3484,28 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B89" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C89" t="str">
-        <v>14-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D89" t="str">
-        <v>09:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E89" t="str">
-        <v>16:35</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F89" t="str">
-        <v>00:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G89" t="str">
-        <v>00:25</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H89" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I89" t="str">
         <v/>
@@ -3519,28 +3519,28 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C90" t="str">
-        <v>17-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D90" t="str">
-        <v>09:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E90" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F90" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G90" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H90" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I90" t="str">
         <v/>
@@ -3554,28 +3554,28 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C91" t="str">
-        <v>18-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D91" t="str">
-        <v>09:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E91" t="str">
-        <v>17:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F91" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G91" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H91" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I91" t="str">
         <v/>
@@ -3589,28 +3589,28 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C92" t="str">
-        <v>19-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D92" t="str">
-        <v>09:16</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E92" t="str">
-        <v>17:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F92" t="str">
-        <v>00:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G92" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H92" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I92" t="str">
         <v/>
@@ -3624,22 +3624,22 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" t="str">
-        <v>Yasser</v>
+        <v>Abdrahman</v>
       </c>
       <c r="C93" t="str">
-        <v>20-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D93" t="str">
-        <v>08:56</v>
+        <v>09:11</v>
       </c>
       <c r="E93" t="str">
-        <v>17:04</v>
+        <v>17:06</v>
       </c>
       <c r="F93" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -3665,22 +3665,22 @@
         <v>Abdrahman</v>
       </c>
       <c r="C94" t="str">
-        <v>21-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D94" t="str">
-        <v>09:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E94" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F94" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G94" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H94" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I94" t="str">
         <v/>
@@ -3700,19 +3700,19 @@
         <v>Abdrahman</v>
       </c>
       <c r="C95" t="str">
-        <v>22-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D95" t="str">
-        <v>09:03</v>
+        <v>09:20</v>
       </c>
       <c r="E95" t="str">
-        <v>17:19</v>
+        <v>15:44</v>
       </c>
       <c r="F95" t="str">
-        <v/>
+        <v>00:10</v>
       </c>
       <c r="G95" t="str">
-        <v/>
+        <v>01:16</v>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -3735,19 +3735,19 @@
         <v>Abdrahman</v>
       </c>
       <c r="C96" t="str">
-        <v>23-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D96" t="str">
-        <v>09:04</v>
+        <v>09:02</v>
       </c>
       <c r="E96" t="str">
-        <v>17:01</v>
+        <v>15:13</v>
       </c>
       <c r="F96" t="str">
         <v/>
       </c>
       <c r="G96" t="str">
-        <v/>
+        <v>01:47</v>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -3770,19 +3770,19 @@
         <v>Abdrahman</v>
       </c>
       <c r="C97" t="str">
-        <v>24-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D97" t="str">
-        <v>08:54</v>
+        <v>09:12</v>
       </c>
       <c r="E97" t="str">
-        <v>15:20</v>
+        <v>17:15</v>
       </c>
       <c r="F97" t="str">
-        <v/>
+        <v>00:02</v>
       </c>
       <c r="G97" t="str">
-        <v>01:40</v>
+        <v/>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -3805,19 +3805,19 @@
         <v>Abdrahman</v>
       </c>
       <c r="C98" t="str">
-        <v>27-Aug-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D98" t="str">
-        <v>09:08</v>
+        <v>08:53</v>
       </c>
       <c r="E98" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:13</v>
       </c>
       <c r="F98" t="str">
         <v/>
       </c>
       <c r="G98" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -3840,22 +3840,22 @@
         <v>Abdrahman</v>
       </c>
       <c r="C99" t="str">
-        <v>28-Aug-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D99" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:08</v>
       </c>
       <c r="E99" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:59</v>
       </c>
       <c r="F99" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G99" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:01</v>
       </c>
       <c r="H99" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I99" t="str">
         <v/>
@@ -3875,22 +3875,22 @@
         <v>Abdrahman</v>
       </c>
       <c r="C100" t="str">
-        <v>29-Aug-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D100" t="str">
-        <v>09:12</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E100" t="str">
-        <v>17:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F100" t="str">
-        <v>00:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G100" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H100" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I100" t="str">
         <v/>
@@ -3910,13 +3910,13 @@
         <v>Abdrahman</v>
       </c>
       <c r="C101" t="str">
-        <v>30-Aug-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D101" t="str">
-        <v>08:59</v>
+        <v>09:09</v>
       </c>
       <c r="E101" t="str">
-        <v>17:06</v>
+        <v>17:12</v>
       </c>
       <c r="F101" t="str">
         <v/>
@@ -3945,22 +3945,22 @@
         <v>Abdrahman</v>
       </c>
       <c r="C102" t="str">
-        <v>31-Aug-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D102" t="str">
-        <v xml:space="preserve"> </v>
+        <v>13:13</v>
       </c>
       <c r="E102" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F102" t="str">
-        <v xml:space="preserve"> </v>
+        <v>04:03</v>
       </c>
       <c r="G102" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H102" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I102" t="str">
         <v/>
@@ -3980,16 +3980,16 @@
         <v>Abdrahman</v>
       </c>
       <c r="C103" t="str">
-        <v>03-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D103" t="str">
-        <v>09:05</v>
+        <v>09:46</v>
       </c>
       <c r="E103" t="str">
-        <v>17:01</v>
+        <v>17:02</v>
       </c>
       <c r="F103" t="str">
-        <v/>
+        <v>00:36</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -4015,22 +4015,22 @@
         <v>Abdrahman</v>
       </c>
       <c r="C104" t="str">
-        <v>04-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D104" t="str">
-        <v>09:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E104" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F104" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G104" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H104" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I104" t="str">
         <v/>
@@ -4050,13 +4050,13 @@
         <v>Abdrahman</v>
       </c>
       <c r="C105" t="str">
-        <v>05-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D105" t="str">
-        <v>09:03</v>
+        <v>09:09</v>
       </c>
       <c r="E105" t="str">
-        <v>17:59</v>
+        <v>17:01</v>
       </c>
       <c r="F105" t="str">
         <v/>
@@ -4085,19 +4085,19 @@
         <v>Abdrahman</v>
       </c>
       <c r="C106" t="str">
-        <v>06-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D106" t="str">
-        <v>17:14</v>
+        <v>13:14</v>
       </c>
       <c r="E106" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:39</v>
       </c>
       <c r="F106" t="str">
-        <v>08:04</v>
+        <v>04:04</v>
       </c>
       <c r="G106" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:21</v>
       </c>
       <c r="H106" t="str">
         <v/>
@@ -4114,28 +4114,28 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B107" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C107" t="str">
-        <v>07-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D107" t="str">
-        <v>09:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E107" t="str">
-        <v>16:59</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F107" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G107" t="str">
-        <v>00:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H107" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I107" t="str">
         <v/>
@@ -4149,13 +4149,13 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B108" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C108" t="str">
-        <v>10-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D108" t="str">
         <v xml:space="preserve"> </v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B109" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C109" t="str">
-        <v>11-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D109" t="str">
         <v xml:space="preserve"> </v>
@@ -4219,13 +4219,13 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C110" t="str">
-        <v>12-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D110" t="str">
         <v xml:space="preserve"> </v>
@@ -4254,28 +4254,28 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B111" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C111" t="str">
-        <v>13-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D111" t="str">
-        <v xml:space="preserve"> </v>
+        <v>10:14</v>
       </c>
       <c r="E111" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15:10</v>
       </c>
       <c r="F111" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:04</v>
       </c>
       <c r="G111" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:50</v>
       </c>
       <c r="H111" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I111" t="str">
         <v/>
@@ -4289,13 +4289,13 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B112" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C112" t="str">
-        <v>14-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> </v>
@@ -4324,13 +4324,13 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B113" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C113" t="str">
-        <v>17-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D113" t="str">
         <v xml:space="preserve"> </v>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B114" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C114" t="str">
-        <v>18-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D114" t="str">
         <v xml:space="preserve"> </v>
@@ -4394,28 +4394,28 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B115" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C115" t="str">
-        <v>19-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D115" t="str">
-        <v xml:space="preserve"> </v>
+        <v>11:03</v>
       </c>
       <c r="E115" t="str">
-        <v xml:space="preserve"> </v>
+        <v>18:40</v>
       </c>
       <c r="F115" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:53</v>
       </c>
       <c r="G115" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H115" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I115" t="str">
         <v/>
@@ -4429,28 +4429,28 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B116" t="str">
-        <v>Abdrahman</v>
+        <v>Walid Radwan</v>
       </c>
       <c r="C116" t="str">
-        <v>20-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D116" t="str">
-        <v xml:space="preserve"> </v>
+        <v>12:03</v>
       </c>
       <c r="E116" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15:06</v>
       </c>
       <c r="F116" t="str">
-        <v xml:space="preserve"> </v>
+        <v>02:53</v>
       </c>
       <c r="G116" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:54</v>
       </c>
       <c r="H116" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I116" t="str">
         <v/>
@@ -4470,22 +4470,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C117" t="str">
-        <v>21-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D117" t="str">
-        <v>09:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E117" t="str">
-        <v>12:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F117" t="str">
-        <v>00:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G117" t="str">
-        <v>04:57</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H117" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I117" t="str">
         <v/>
@@ -4505,22 +4505,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C118" t="str">
-        <v>22-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D118" t="str">
-        <v>09:21</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E118" t="str">
-        <v>16:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F118" t="str">
-        <v>00:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G118" t="str">
-        <v>00:52</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H118" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I118" t="str">
         <v/>
@@ -4540,22 +4540,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C119" t="str">
-        <v>23-Aug-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D119" t="str">
-        <v>09:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E119" t="str">
-        <v>19:57</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F119" t="str">
-        <v>00:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G119" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H119" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I119" t="str">
         <v/>
@@ -4575,22 +4575,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C120" t="str">
-        <v>24-Aug-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D120" t="str">
-        <v>09:27</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E120" t="str">
-        <v>18:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F120" t="str">
-        <v>00:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G120" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H120" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I120" t="str">
         <v/>
@@ -4610,22 +4610,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C121" t="str">
-        <v>27-Aug-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D121" t="str">
-        <v>10:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E121" t="str">
-        <v>15:23</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F121" t="str">
-        <v>00:50</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G121" t="str">
-        <v>01:37</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H121" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I121" t="str">
         <v/>
@@ -4645,19 +4645,19 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C122" t="str">
-        <v>28-Aug-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D122" t="str">
-        <v>10:39</v>
+        <v>10:47</v>
       </c>
       <c r="E122" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:46</v>
       </c>
       <c r="F122" t="str">
-        <v>01:29</v>
+        <v>01:37</v>
       </c>
       <c r="G122" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H122" t="str">
         <v/>
@@ -4680,19 +4680,19 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C123" t="str">
-        <v>29-Aug-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D123" t="str">
-        <v>09:35</v>
+        <v>09:34</v>
       </c>
       <c r="E123" t="str">
-        <v>18:20</v>
+        <v>12:32</v>
       </c>
       <c r="F123" t="str">
-        <v>00:25</v>
+        <v>00:24</v>
       </c>
       <c r="G123" t="str">
-        <v/>
+        <v>04:28</v>
       </c>
       <c r="H123" t="str">
         <v/>
@@ -4715,16 +4715,16 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C124" t="str">
-        <v>30-Aug-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D124" t="str">
-        <v>11:32</v>
+        <v>11:59</v>
       </c>
       <c r="E124" t="str">
-        <v>20:08</v>
+        <v>18:02</v>
       </c>
       <c r="F124" t="str">
-        <v>02:22</v>
+        <v>02:49</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -4750,16 +4750,16 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C125" t="str">
-        <v>31-Aug-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D125" t="str">
-        <v>09:16</v>
+        <v>10:17</v>
       </c>
       <c r="E125" t="str">
-        <v>18:28</v>
+        <v>17:18</v>
       </c>
       <c r="F125" t="str">
-        <v>00:06</v>
+        <v>01:07</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -4785,22 +4785,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C126" t="str">
-        <v>03-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D126" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E126" t="str">
-        <v>15:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F126" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G126" t="str">
-        <v>01:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H126" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I126" t="str">
         <v/>
@@ -4820,22 +4820,22 @@
         <v>Walid Radwan</v>
       </c>
       <c r="C127" t="str">
-        <v>04-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D127" t="str">
-        <v>09:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E127" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F127" t="str">
-        <v>00:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G127" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H127" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I127" t="str">
         <v/>
@@ -4849,28 +4849,28 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B128" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C128" t="str">
-        <v>05-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D128" t="str">
-        <v>11:16</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E128" t="str">
-        <v>18:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F128" t="str">
-        <v>02:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G128" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H128" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I128" t="str">
         <v/>
@@ -4884,28 +4884,28 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B129" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C129" t="str">
-        <v>06-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D129" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E129" t="str">
-        <v>18:47</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F129" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G129" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H129" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I129" t="str">
         <v/>
@@ -4919,13 +4919,13 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C130" t="str">
-        <v>07-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D130" t="str">
         <v xml:space="preserve"> </v>
@@ -4954,13 +4954,13 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B131" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C131" t="str">
-        <v>10-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D131" t="str">
         <v xml:space="preserve"> </v>
@@ -4989,28 +4989,28 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C132" t="str">
-        <v>11-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D132" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:54</v>
       </c>
       <c r="E132" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15:00</v>
       </c>
       <c r="F132" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:44</v>
       </c>
       <c r="G132" t="str">
-        <v xml:space="preserve"> </v>
+        <v>02:00</v>
       </c>
       <c r="H132" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I132" t="str">
         <v/>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C133" t="str">
-        <v>12-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D133" t="str">
         <v xml:space="preserve"> </v>
@@ -5059,28 +5059,28 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C134" t="str">
-        <v>13-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D134" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:18</v>
       </c>
       <c r="E134" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:59</v>
       </c>
       <c r="F134" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:08</v>
       </c>
       <c r="G134" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:01</v>
       </c>
       <c r="H134" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I134" t="str">
         <v/>
@@ -5094,28 +5094,28 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C135" t="str">
-        <v>14-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D135" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:56</v>
       </c>
       <c r="E135" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:06</v>
       </c>
       <c r="F135" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G135" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H135" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I135" t="str">
         <v/>
@@ -5129,13 +5129,13 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C136" t="str">
-        <v>17-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D136" t="str">
         <v xml:space="preserve"> </v>
@@ -5164,13 +5164,13 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B137" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C137" t="str">
-        <v>18-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D137" t="str">
         <v xml:space="preserve"> </v>
@@ -5199,28 +5199,28 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B138" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C138" t="str">
-        <v>19-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D138" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:41</v>
       </c>
       <c r="E138" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F138" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:31</v>
       </c>
       <c r="G138" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H138" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I138" t="str">
         <v/>
@@ -5234,28 +5234,28 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B139" t="str">
-        <v>Walid Radwan</v>
+        <v>M Sheref</v>
       </c>
       <c r="C139" t="str">
-        <v>20-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D139" t="str">
-        <v xml:space="preserve"> </v>
+        <v>10:24</v>
       </c>
       <c r="E139" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:51</v>
       </c>
       <c r="F139" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:14</v>
       </c>
       <c r="G139" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:09</v>
       </c>
       <c r="H139" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I139" t="str">
         <v/>
@@ -5275,22 +5275,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C140" t="str">
-        <v>21-Aug-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D140" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15:39</v>
       </c>
       <c r="E140" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F140" t="str">
-        <v xml:space="preserve"> </v>
+        <v>06:29</v>
       </c>
       <c r="G140" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H140" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I140" t="str">
         <v/>
@@ -5310,7 +5310,7 @@
         <v>M Sheref</v>
       </c>
       <c r="C141" t="str">
-        <v>22-Aug-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D141" t="str">
         <v xml:space="preserve"> </v>
@@ -5345,7 +5345,7 @@
         <v>M Sheref</v>
       </c>
       <c r="C142" t="str">
-        <v>23-Aug-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D142" t="str">
         <v xml:space="preserve"> </v>
@@ -5380,22 +5380,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C143" t="str">
-        <v>24-Aug-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D143" t="str">
-        <v>08:51</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E143" t="str">
-        <v>17:50</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F143" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G143" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H143" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I143" t="str">
         <v/>
@@ -5415,22 +5415,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C144" t="str">
-        <v>27-Aug-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D144" t="str">
-        <v>09:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E144" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F144" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G144" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H144" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I144" t="str">
         <v/>
@@ -5450,22 +5450,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C145" t="str">
-        <v>28-Aug-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D145" t="str">
-        <v>10:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E145" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F145" t="str">
-        <v>00:54</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G145" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H145" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I145" t="str">
         <v/>
@@ -5485,22 +5485,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C146" t="str">
-        <v>29-Aug-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D146" t="str">
-        <v>09:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E146" t="str">
-        <v>17:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F146" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G146" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H146" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I146" t="str">
         <v/>
@@ -5520,22 +5520,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C147" t="str">
-        <v>30-Aug-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D147" t="str">
-        <v>08:55</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E147" t="str">
-        <v>17:44</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F147" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G147" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H147" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I147" t="str">
         <v/>
@@ -5555,22 +5555,22 @@
         <v>M Sheref</v>
       </c>
       <c r="C148" t="str">
-        <v>31-Aug-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D148" t="str">
-        <v>10:23</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E148" t="str">
-        <v>16:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F148" t="str">
-        <v>01:13</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G148" t="str">
-        <v>00:51</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H148" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I148" t="str">
         <v/>
@@ -5584,13 +5584,13 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B149" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C149" t="str">
-        <v>03-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D149" t="str">
         <v xml:space="preserve"> </v>
@@ -5619,16 +5619,16 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B150" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C150" t="str">
-        <v>04-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D150" t="str">
-        <v>09:05</v>
+        <v>07:08</v>
       </c>
       <c r="E150" t="str">
         <v xml:space="preserve"> </v>
@@ -5654,22 +5654,22 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B151" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C151" t="str">
-        <v>05-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D151" t="str">
-        <v>10:18</v>
+        <v>07:09</v>
       </c>
       <c r="E151" t="str">
-        <v>17:39</v>
+        <v>18:08</v>
       </c>
       <c r="F151" t="str">
-        <v>01:08</v>
+        <v/>
       </c>
       <c r="G151" t="str">
         <v/>
@@ -5689,25 +5689,25 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B152" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C152" t="str">
-        <v>06-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D152" t="str">
-        <v>09:04</v>
+        <v>06:24</v>
       </c>
       <c r="E152" t="str">
-        <v>19:43</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F152" t="str">
         <v/>
       </c>
       <c r="G152" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H152" t="str">
         <v/>
@@ -5724,25 +5724,25 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B153" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C153" t="str">
-        <v>07-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D153" t="str">
-        <v>09:01</v>
+        <v>06:29</v>
       </c>
       <c r="E153" t="str">
-        <v>16:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F153" t="str">
         <v/>
       </c>
       <c r="G153" t="str">
-        <v>00:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H153" t="str">
         <v/>
@@ -5759,13 +5759,13 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B154" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C154" t="str">
-        <v>10-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D154" t="str">
         <v xml:space="preserve"> </v>
@@ -5794,13 +5794,13 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B155" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C155" t="str">
-        <v>11-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D155" t="str">
         <v xml:space="preserve"> </v>
@@ -5829,13 +5829,13 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B156" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C156" t="str">
-        <v>12-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D156" t="str">
         <v xml:space="preserve"> </v>
@@ -5864,13 +5864,13 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B157" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C157" t="str">
-        <v>13-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D157" t="str">
         <v xml:space="preserve"> </v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B158" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C158" t="str">
-        <v>14-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D158" t="str">
         <v xml:space="preserve"> </v>
@@ -5934,13 +5934,13 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B159" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C159" t="str">
-        <v>17-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D159" t="str">
         <v xml:space="preserve"> </v>
@@ -5969,28 +5969,28 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B160" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C160" t="str">
-        <v>18-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D160" t="str">
-        <v>09:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E160" t="str">
-        <v>10:49</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F160" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G160" t="str">
-        <v>06:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H160" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I160" t="str">
         <v/>
@@ -6004,28 +6004,28 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B161" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C161" t="str">
-        <v>19-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D161" t="str">
-        <v>09:30</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E161" t="str">
-        <v>12:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F161" t="str">
-        <v>00:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G161" t="str">
-        <v>04:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H161" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I161" t="str">
         <v/>
@@ -6039,28 +6039,28 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B162" t="str">
-        <v>M Sheref</v>
+        <v>Msaeed</v>
       </c>
       <c r="C162" t="str">
-        <v>20-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D162" t="str">
-        <v>09:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E162" t="str">
-        <v>16:29</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F162" t="str">
-        <v>00:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G162" t="str">
-        <v>00:31</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H162" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I162" t="str">
         <v/>
@@ -6080,7 +6080,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C163" t="str">
-        <v>21-Aug-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D163" t="str">
         <v xml:space="preserve"> </v>
@@ -6115,7 +6115,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C164" t="str">
-        <v>22-Aug-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D164" t="str">
         <v xml:space="preserve"> </v>
@@ -6150,7 +6150,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C165" t="str">
-        <v>23-Aug-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D165" t="str">
         <v xml:space="preserve"> </v>
@@ -6185,7 +6185,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C166" t="str">
-        <v>24-Aug-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D166" t="str">
         <v xml:space="preserve"> </v>
@@ -6220,7 +6220,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C167" t="str">
-        <v>27-Aug-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D167" t="str">
         <v xml:space="preserve"> </v>
@@ -6255,7 +6255,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C168" t="str">
-        <v>28-Aug-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D168" t="str">
         <v xml:space="preserve"> </v>
@@ -6290,7 +6290,7 @@
         <v>Msaeed</v>
       </c>
       <c r="C169" t="str">
-        <v>29-Aug-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D169" t="str">
         <v xml:space="preserve"> </v>
@@ -6319,13 +6319,13 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B170" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C170" t="str">
-        <v>30-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D170" t="str">
         <v xml:space="preserve"> </v>
@@ -6354,13 +6354,13 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B171" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C171" t="str">
-        <v>31-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D171" t="str">
         <v xml:space="preserve"> </v>
@@ -6389,13 +6389,13 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B172" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C172" t="str">
-        <v>03-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D172" t="str">
         <v xml:space="preserve"> </v>
@@ -6424,28 +6424,28 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B173" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C173" t="str">
-        <v>04-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D173" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:50</v>
       </c>
       <c r="E173" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:07</v>
       </c>
       <c r="F173" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G173" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H173" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I173" t="str">
         <v/>
@@ -6459,28 +6459,28 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B174" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C174" t="str">
-        <v>05-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D174" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:48</v>
       </c>
       <c r="E174" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:03</v>
       </c>
       <c r="F174" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G174" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H174" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I174" t="str">
         <v/>
@@ -6494,13 +6494,13 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B175" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C175" t="str">
-        <v>06-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D175" t="str">
         <v xml:space="preserve"> </v>
@@ -6529,13 +6529,13 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B176" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C176" t="str">
-        <v>07-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D176" t="str">
         <v xml:space="preserve"> </v>
@@ -6564,13 +6564,13 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B177" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C177" t="str">
-        <v>10-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D177" t="str">
         <v xml:space="preserve"> </v>
@@ -6599,13 +6599,13 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B178" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C178" t="str">
-        <v>11-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D178" t="str">
         <v xml:space="preserve"> </v>
@@ -6634,13 +6634,13 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B179" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C179" t="str">
-        <v>12-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D179" t="str">
         <v xml:space="preserve"> </v>
@@ -6669,13 +6669,13 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B180" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C180" t="str">
-        <v>13-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D180" t="str">
         <v xml:space="preserve"> </v>
@@ -6704,13 +6704,13 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B181" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C181" t="str">
-        <v>14-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D181" t="str">
         <v xml:space="preserve"> </v>
@@ -6739,13 +6739,13 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C182" t="str">
-        <v>17-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D182" t="str">
         <v xml:space="preserve"> </v>
@@ -6774,13 +6774,13 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B183" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C183" t="str">
-        <v>18-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D183" t="str">
         <v xml:space="preserve"> </v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C184" t="str">
-        <v>19-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D184" t="str">
         <v xml:space="preserve"> </v>
@@ -6844,28 +6844,28 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185" t="str">
-        <v>Msaeed</v>
+        <v>Bassem</v>
       </c>
       <c r="C185" t="str">
-        <v>20-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D185" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:34</v>
       </c>
       <c r="E185" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:02</v>
       </c>
       <c r="F185" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G185" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H185" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I185" t="str">
         <v/>
@@ -6885,19 +6885,19 @@
         <v>Bassem</v>
       </c>
       <c r="C186" t="str">
-        <v>21-Aug-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D186" t="str">
-        <v>08:55</v>
+        <v>08:50</v>
       </c>
       <c r="E186" t="str">
-        <v>16:47</v>
+        <v>17:02</v>
       </c>
       <c r="F186" t="str">
         <v/>
       </c>
       <c r="G186" t="str">
-        <v>00:13</v>
+        <v/>
       </c>
       <c r="H186" t="str">
         <v/>
@@ -6920,13 +6920,13 @@
         <v>Bassem</v>
       </c>
       <c r="C187" t="str">
-        <v>22-Aug-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D187" t="str">
-        <v>08:56</v>
+        <v>08:43</v>
       </c>
       <c r="E187" t="str">
-        <v>17:07</v>
+        <v>17:01</v>
       </c>
       <c r="F187" t="str">
         <v/>
@@ -6955,13 +6955,13 @@
         <v>Bassem</v>
       </c>
       <c r="C188" t="str">
-        <v>23-Aug-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D188" t="str">
         <v>08:51</v>
       </c>
       <c r="E188" t="str">
-        <v>17:00</v>
+        <v>17:18</v>
       </c>
       <c r="F188" t="str">
         <v/>
@@ -6990,7 +6990,7 @@
         <v>Bassem</v>
       </c>
       <c r="C189" t="str">
-        <v>24-Aug-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D189" t="str">
         <v xml:space="preserve"> </v>
@@ -7025,19 +7025,19 @@
         <v>Bassem</v>
       </c>
       <c r="C190" t="str">
-        <v>27-Aug-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D190" t="str">
-        <v>08:41</v>
+        <v>08:59</v>
       </c>
       <c r="E190" t="str">
-        <v>17:07</v>
+        <v>16:52</v>
       </c>
       <c r="F190" t="str">
         <v/>
       </c>
       <c r="G190" t="str">
-        <v/>
+        <v>00:08</v>
       </c>
       <c r="H190" t="str">
         <v/>
@@ -7054,13 +7054,13 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B191" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C191" t="str">
-        <v>28-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D191" t="str">
         <v xml:space="preserve"> </v>
@@ -7089,13 +7089,13 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B192" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C192" t="str">
-        <v>29-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D192" t="str">
         <v xml:space="preserve"> </v>
@@ -7124,13 +7124,13 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B193" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C193" t="str">
-        <v>30-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D193" t="str">
         <v xml:space="preserve"> </v>
@@ -7159,13 +7159,13 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B194" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C194" t="str">
-        <v>31-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D194" t="str">
         <v xml:space="preserve"> </v>
@@ -7194,28 +7194,28 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B195" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C195" t="str">
-        <v>03-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D195" t="str">
-        <v>09:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E195" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F195" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G195" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H195" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I195" t="str">
         <v/>
@@ -7229,28 +7229,28 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B196" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C196" t="str">
-        <v>04-Sep-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D196" t="str">
-        <v>08:52</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E196" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F196" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G196" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H196" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I196" t="str">
         <v/>
@@ -7264,13 +7264,13 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B197" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C197" t="str">
-        <v>05-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D197" t="str">
         <v xml:space="preserve"> </v>
@@ -7299,28 +7299,28 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B198" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C198" t="str">
-        <v>06-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D198" t="str">
-        <v>08:59</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E198" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F198" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G198" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H198" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I198" t="str">
         <v/>
@@ -7334,28 +7334,28 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C199" t="str">
-        <v>07-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D199" t="str">
-        <v>08:58</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E199" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F199" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G199" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H199" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I199" t="str">
         <v/>
@@ -7369,28 +7369,28 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B200" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C200" t="str">
-        <v>10-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D200" t="str">
-        <v>08:43</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E200" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F200" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G200" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H200" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I200" t="str">
         <v/>
@@ -7404,28 +7404,28 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B201" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C201" t="str">
-        <v>11-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D201" t="str">
-        <v>09:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E201" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F201" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G201" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H201" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I201" t="str">
         <v/>
@@ -7439,28 +7439,28 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B202" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C202" t="str">
-        <v>12-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D202" t="str">
-        <v>08:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E202" t="str">
-        <v>17:12</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F202" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G202" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H202" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I202" t="str">
         <v/>
@@ -7474,28 +7474,28 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B203" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C203" t="str">
-        <v>13-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D203" t="str">
-        <v>09:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E203" t="str">
-        <v>16:53</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F203" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G203" t="str">
-        <v>00:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H203" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I203" t="str">
         <v/>
@@ -7509,13 +7509,13 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B204" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C204" t="str">
-        <v>14-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D204" t="str">
         <v xml:space="preserve"> </v>
@@ -7544,28 +7544,28 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B205" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C205" t="str">
-        <v>17-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D205" t="str">
-        <v>09:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E205" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F205" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G205" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H205" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I205" t="str">
         <v/>
@@ -7579,28 +7579,28 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B206" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C206" t="str">
-        <v>18-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D206" t="str">
-        <v>08:50</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E206" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F206" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G206" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H206" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I206" t="str">
         <v/>
@@ -7614,28 +7614,28 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B207" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C207" t="str">
-        <v>19-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D207" t="str">
-        <v>08:50</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E207" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F207" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G207" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H207" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I207" t="str">
         <v/>
@@ -7649,28 +7649,28 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B208" t="str">
-        <v>Bassem</v>
+        <v>M Gamal</v>
       </c>
       <c r="C208" t="str">
-        <v>20-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D208" t="str">
-        <v>08:54</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E208" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F208" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G208" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H208" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I208" t="str">
         <v/>
@@ -7690,7 +7690,7 @@
         <v>M Gamal</v>
       </c>
       <c r="C209" t="str">
-        <v>21-Aug-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D209" t="str">
         <v xml:space="preserve"> </v>
@@ -7725,7 +7725,7 @@
         <v>M Gamal</v>
       </c>
       <c r="C210" t="str">
-        <v>22-Aug-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D210" t="str">
         <v xml:space="preserve"> </v>
@@ -7760,7 +7760,7 @@
         <v>M Gamal</v>
       </c>
       <c r="C211" t="str">
-        <v>23-Aug-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D211" t="str">
         <v xml:space="preserve"> </v>
@@ -7789,13 +7789,13 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B212" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C212" t="str">
-        <v>24-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D212" t="str">
         <v xml:space="preserve"> </v>
@@ -7824,28 +7824,28 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B213" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C213" t="str">
-        <v>27-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D213" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:38</v>
       </c>
       <c r="E213" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F213" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G213" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H213" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I213" t="str">
         <v/>
@@ -7859,28 +7859,28 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B214" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C214" t="str">
-        <v>28-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D214" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:31</v>
       </c>
       <c r="E214" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F214" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G214" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H214" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I214" t="str">
         <v/>
@@ -7894,28 +7894,28 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B215" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C215" t="str">
-        <v>29-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D215" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:31</v>
       </c>
       <c r="E215" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:06</v>
       </c>
       <c r="F215" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G215" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H215" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I215" t="str">
         <v/>
@@ -7929,28 +7929,28 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B216" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C216" t="str">
-        <v>30-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D216" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:30</v>
       </c>
       <c r="E216" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:03</v>
       </c>
       <c r="F216" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G216" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H216" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I216" t="str">
         <v/>
@@ -7964,28 +7964,28 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B217" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C217" t="str">
-        <v>31-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D217" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:30</v>
       </c>
       <c r="E217" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:01</v>
       </c>
       <c r="F217" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G217" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H217" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I217" t="str">
         <v/>
@@ -7999,25 +7999,25 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B218" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C218" t="str">
-        <v>03-Sep-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D218" t="str">
-        <v>17:11</v>
+        <v>08:31</v>
       </c>
       <c r="E218" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F218" t="str">
-        <v>08:01</v>
+        <v/>
       </c>
       <c r="G218" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H218" t="str">
         <v/>
@@ -8034,28 +8034,28 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B219" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C219" t="str">
-        <v>04-Sep-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D219" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:38</v>
       </c>
       <c r="E219" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:05</v>
       </c>
       <c r="F219" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G219" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H219" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I219" t="str">
         <v/>
@@ -8069,28 +8069,28 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B220" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C220" t="str">
-        <v>05-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D220" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:31</v>
       </c>
       <c r="E220" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:01</v>
       </c>
       <c r="F220" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G220" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H220" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I220" t="str">
         <v/>
@@ -8104,28 +8104,28 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B221" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C221" t="str">
-        <v>06-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D221" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:23</v>
       </c>
       <c r="E221" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F221" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G221" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H221" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I221" t="str">
         <v/>
@@ -8139,28 +8139,28 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B222" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C222" t="str">
-        <v>07-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D222" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:26</v>
       </c>
       <c r="E222" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:56</v>
       </c>
       <c r="F222" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G222" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:04</v>
       </c>
       <c r="H222" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I222" t="str">
         <v/>
@@ -8174,28 +8174,28 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B223" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C223" t="str">
-        <v>10-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D223" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:20</v>
       </c>
       <c r="E223" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:01</v>
       </c>
       <c r="F223" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G223" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H223" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I223" t="str">
         <v/>
@@ -8209,28 +8209,28 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B224" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C224" t="str">
-        <v>11-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D224" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:30</v>
       </c>
       <c r="E224" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F224" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G224" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H224" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I224" t="str">
         <v/>
@@ -8244,13 +8244,13 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B225" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C225" t="str">
-        <v>12-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D225" t="str">
         <v xml:space="preserve"> </v>
@@ -8279,28 +8279,28 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B226" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C226" t="str">
-        <v>13-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D226" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:28</v>
       </c>
       <c r="E226" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:03</v>
       </c>
       <c r="F226" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G226" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H226" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I226" t="str">
         <v/>
@@ -8314,28 +8314,28 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B227" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C227" t="str">
-        <v>14-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D227" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:34</v>
       </c>
       <c r="E227" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F227" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G227" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H227" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I227" t="str">
         <v/>
@@ -8349,28 +8349,28 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B228" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C228" t="str">
-        <v>17-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D228" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:21</v>
       </c>
       <c r="E228" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:01</v>
       </c>
       <c r="F228" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G228" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H228" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I228" t="str">
         <v/>
@@ -8384,28 +8384,28 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B229" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C229" t="str">
-        <v>18-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D229" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:43</v>
       </c>
       <c r="E229" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:57</v>
       </c>
       <c r="F229" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G229" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:03</v>
       </c>
       <c r="H229" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I229" t="str">
         <v/>
@@ -8419,28 +8419,28 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B230" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C230" t="str">
-        <v>19-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D230" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:38</v>
       </c>
       <c r="E230" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:17</v>
       </c>
       <c r="F230" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G230" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H230" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I230" t="str">
         <v/>
@@ -8454,28 +8454,28 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B231" t="str">
-        <v>M Gamal</v>
+        <v>A Fayez</v>
       </c>
       <c r="C231" t="str">
-        <v>20-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D231" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:52</v>
       </c>
       <c r="E231" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F231" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G231" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H231" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I231" t="str">
         <v/>
@@ -8495,19 +8495,19 @@
         <v>A Fayez</v>
       </c>
       <c r="C232" t="str">
-        <v>21-Aug-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D232" t="str">
-        <v>08:33</v>
+        <v>07:51</v>
       </c>
       <c r="E232" t="str">
-        <v>16:47</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F232" t="str">
         <v/>
       </c>
       <c r="G232" t="str">
-        <v>00:13</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H232" t="str">
         <v/>
@@ -8524,28 +8524,28 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B233" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C233" t="str">
-        <v>22-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D233" t="str">
-        <v>08:56</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E233" t="str">
-        <v>17:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F233" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G233" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H233" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I233" t="str">
         <v/>
@@ -8559,25 +8559,25 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B234" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C234" t="str">
-        <v>23-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D234" t="str">
-        <v>08:51</v>
+        <v>10:06</v>
       </c>
       <c r="E234" t="str">
-        <v>17:00</v>
+        <v>16:58</v>
       </c>
       <c r="F234" t="str">
-        <v/>
+        <v>00:56</v>
       </c>
       <c r="G234" t="str">
-        <v/>
+        <v>00:02</v>
       </c>
       <c r="H234" t="str">
         <v/>
@@ -8594,22 +8594,22 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B235" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C235" t="str">
-        <v>24-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D235" t="str">
-        <v>08:18</v>
+        <v>09:33</v>
       </c>
       <c r="E235" t="str">
         <v>17:00</v>
       </c>
       <c r="F235" t="str">
-        <v/>
+        <v>00:23</v>
       </c>
       <c r="G235" t="str">
         <v/>
@@ -8629,25 +8629,25 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B236" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C236" t="str">
-        <v>27-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D236" t="str">
-        <v>08:41</v>
+        <v>09:51</v>
       </c>
       <c r="E236" t="str">
-        <v>16:55</v>
+        <v>17:07</v>
       </c>
       <c r="F236" t="str">
-        <v/>
+        <v>00:41</v>
       </c>
       <c r="G236" t="str">
-        <v>00:05</v>
+        <v/>
       </c>
       <c r="H236" t="str">
         <v/>
@@ -8664,22 +8664,22 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B237" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C237" t="str">
-        <v>28-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D237" t="str">
-        <v>08:37</v>
+        <v>09:46</v>
       </c>
       <c r="E237" t="str">
-        <v>17:01</v>
+        <v>17:03</v>
       </c>
       <c r="F237" t="str">
-        <v/>
+        <v>00:36</v>
       </c>
       <c r="G237" t="str">
         <v/>
@@ -8699,28 +8699,28 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B238" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C238" t="str">
-        <v>29-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D238" t="str">
-        <v>08:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E238" t="str">
-        <v>17:06</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F238" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G238" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H238" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I238" t="str">
         <v/>
@@ -8734,28 +8734,28 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B239" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C239" t="str">
-        <v>30-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D239" t="str">
-        <v>08:27</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E239" t="str">
-        <v>17:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F239" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G239" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H239" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I239" t="str">
         <v/>
@@ -8769,22 +8769,22 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B240" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C240" t="str">
-        <v>31-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D240" t="str">
-        <v>08:34</v>
+        <v>09:35</v>
       </c>
       <c r="E240" t="str">
-        <v>17:02</v>
+        <v>17:06</v>
       </c>
       <c r="F240" t="str">
-        <v/>
+        <v>00:25</v>
       </c>
       <c r="G240" t="str">
         <v/>
@@ -8804,25 +8804,25 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B241" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C241" t="str">
-        <v>03-Sep-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D241" t="str">
-        <v>08:40</v>
+        <v>09:47</v>
       </c>
       <c r="E241" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F241" t="str">
-        <v/>
+        <v>00:37</v>
       </c>
       <c r="G241" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H241" t="str">
         <v/>
@@ -8839,28 +8839,28 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B242" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C242" t="str">
-        <v>04-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D242" t="str">
-        <v>08:34</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E242" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F242" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G242" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H242" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I242" t="str">
         <v/>
@@ -8874,25 +8874,25 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B243" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C243" t="str">
-        <v>05-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D243" t="str">
-        <v>08:49</v>
+        <v>09:59</v>
       </c>
       <c r="E243" t="str">
-        <v>10:59</v>
+        <v>17:15</v>
       </c>
       <c r="F243" t="str">
-        <v/>
+        <v>00:49</v>
       </c>
       <c r="G243" t="str">
-        <v>06:01</v>
+        <v/>
       </c>
       <c r="H243" t="str">
         <v/>
@@ -8909,28 +8909,28 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B244" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C244" t="str">
-        <v>06-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D244" t="str">
-        <v>08:44</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E244" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F244" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G244" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H244" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I244" t="str">
         <v/>
@@ -8944,28 +8944,28 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B245" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C245" t="str">
-        <v>07-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D245" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:24</v>
       </c>
       <c r="E245" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:08</v>
       </c>
       <c r="F245" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:14</v>
       </c>
       <c r="G245" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H245" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I245" t="str">
         <v/>
@@ -8979,22 +8979,22 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B246" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C246" t="str">
-        <v>10-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D246" t="str">
-        <v>08:43</v>
+        <v>10:12</v>
       </c>
       <c r="E246" t="str">
-        <v>17:01</v>
+        <v>17:09</v>
       </c>
       <c r="F246" t="str">
-        <v/>
+        <v>01:02</v>
       </c>
       <c r="G246" t="str">
         <v/>
@@ -9014,22 +9014,22 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B247" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C247" t="str">
-        <v>11-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D247" t="str">
-        <v>08:37</v>
+        <v>13:05</v>
       </c>
       <c r="E247" t="str">
         <v>17:04</v>
       </c>
       <c r="F247" t="str">
-        <v/>
+        <v>03:55</v>
       </c>
       <c r="G247" t="str">
         <v/>
@@ -9049,22 +9049,22 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B248" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C248" t="str">
-        <v>12-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D248" t="str">
-        <v>08:37</v>
+        <v>09:44</v>
       </c>
       <c r="E248" t="str">
-        <v>17:12</v>
+        <v>17:39</v>
       </c>
       <c r="F248" t="str">
-        <v/>
+        <v>00:34</v>
       </c>
       <c r="G248" t="str">
         <v/>
@@ -9084,25 +9084,25 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B249" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C249" t="str">
-        <v>13-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D249" t="str">
-        <v>08:37</v>
+        <v>13:26</v>
       </c>
       <c r="E249" t="str">
-        <v>16:53</v>
+        <v>17:03</v>
       </c>
       <c r="F249" t="str">
-        <v/>
+        <v>04:16</v>
       </c>
       <c r="G249" t="str">
-        <v>00:07</v>
+        <v/>
       </c>
       <c r="H249" t="str">
         <v/>
@@ -9119,25 +9119,25 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B250" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C250" t="str">
-        <v>14-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D250" t="str">
-        <v>08:24</v>
+        <v>09:32</v>
       </c>
       <c r="E250" t="str">
-        <v>16:36</v>
+        <v>17:13</v>
       </c>
       <c r="F250" t="str">
-        <v/>
+        <v>00:22</v>
       </c>
       <c r="G250" t="str">
-        <v>00:24</v>
+        <v/>
       </c>
       <c r="H250" t="str">
         <v/>
@@ -9154,22 +9154,22 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B251" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C251" t="str">
-        <v>17-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D251" t="str">
-        <v>08:42</v>
+        <v>09:28</v>
       </c>
       <c r="E251" t="str">
-        <v>17:00</v>
+        <v>17:17</v>
       </c>
       <c r="F251" t="str">
-        <v/>
+        <v>00:18</v>
       </c>
       <c r="G251" t="str">
         <v/>
@@ -9189,28 +9189,28 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B252" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C252" t="str">
-        <v>18-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D252" t="str">
-        <v>08:50</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E252" t="str">
-        <v>17:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F252" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G252" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H252" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I252" t="str">
         <v/>
@@ -9224,25 +9224,25 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B253" t="str">
-        <v>A Fayez</v>
+        <v>Amr</v>
       </c>
       <c r="C253" t="str">
-        <v>19-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D253" t="str">
-        <v>08:30</v>
+        <v>12:44</v>
       </c>
       <c r="E253" t="str">
-        <v>17:04</v>
+        <v>16:54</v>
       </c>
       <c r="F253" t="str">
-        <v/>
+        <v>03:34</v>
       </c>
       <c r="G253" t="str">
-        <v/>
+        <v>00:06</v>
       </c>
       <c r="H253" t="str">
         <v/>
@@ -9259,28 +9259,28 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B254" t="str">
-        <v>A Fayez</v>
+        <v>Habiba</v>
       </c>
       <c r="C254" t="str">
-        <v>20-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D254" t="str">
-        <v>08:54</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E254" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F254" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G254" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H254" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I254" t="str">
         <v/>
@@ -9294,28 +9294,28 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B255" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C255" t="str">
-        <v>21-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D255" t="str">
-        <v>09:42</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E255" t="str">
-        <v>17:43</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F255" t="str">
-        <v>00:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G255" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H255" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I255" t="str">
         <v/>
@@ -9329,28 +9329,28 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B256" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C256" t="str">
-        <v>22-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D256" t="str">
-        <v>09:51</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E256" t="str">
-        <v>17:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F256" t="str">
-        <v>00:41</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G256" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H256" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I256" t="str">
         <v/>
@@ -9364,13 +9364,13 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B257" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C257" t="str">
-        <v>23-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D257" t="str">
         <v xml:space="preserve"> </v>
@@ -9399,28 +9399,28 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B258" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C258" t="str">
-        <v>24-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D258" t="str">
-        <v>09:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E258" t="str">
-        <v>17:48</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F258" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G258" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H258" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I258" t="str">
         <v/>
@@ -9434,28 +9434,28 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B259" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C259" t="str">
-        <v>27-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D259" t="str">
-        <v>09:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E259" t="str">
-        <v>17:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F259" t="str">
-        <v>00:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G259" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H259" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I259" t="str">
         <v/>
@@ -9469,28 +9469,28 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B260" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C260" t="str">
-        <v>28-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D260" t="str">
-        <v>09:33</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E260" t="str">
-        <v>17:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F260" t="str">
-        <v>00:23</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G260" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H260" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I260" t="str">
         <v/>
@@ -9504,28 +9504,28 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B261" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C261" t="str">
-        <v>29-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D261" t="str">
-        <v>09:24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E261" t="str">
-        <v>17:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F261" t="str">
-        <v>00:14</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G261" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H261" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I261" t="str">
         <v/>
@@ -9539,28 +9539,28 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B262" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C262" t="str">
-        <v>30-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D262" t="str">
-        <v>09:34</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E262" t="str">
-        <v>17:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F262" t="str">
-        <v>00:24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G262" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H262" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I262" t="str">
         <v/>
@@ -9574,28 +9574,28 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B263" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C263" t="str">
-        <v>31-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D263" t="str">
-        <v>09:19</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E263" t="str">
-        <v>17:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F263" t="str">
-        <v>00:09</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G263" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H263" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I263" t="str">
         <v/>
@@ -9609,28 +9609,28 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B264" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C264" t="str">
-        <v>03-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D264" t="str">
-        <v>09:27</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E264" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F264" t="str">
-        <v>00:17</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G264" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H264" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I264" t="str">
         <v/>
@@ -9644,28 +9644,28 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B265" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C265" t="str">
-        <v>04-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D265" t="str">
-        <v>09:26</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E265" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F265" t="str">
-        <v>00:16</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G265" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H265" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I265" t="str">
         <v/>
@@ -9679,28 +9679,28 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B266" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C266" t="str">
-        <v>05-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D266" t="str">
-        <v>09:39</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E266" t="str">
-        <v>17:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F266" t="str">
-        <v>00:29</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G266" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H266" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I266" t="str">
         <v/>
@@ -9714,28 +9714,28 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B267" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C267" t="str">
-        <v>06-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D267" t="str">
-        <v>09:29</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E267" t="str">
-        <v>17:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F267" t="str">
-        <v>00:19</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G267" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H267" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I267" t="str">
         <v/>
@@ -9749,28 +9749,28 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B268" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C268" t="str">
-        <v>07-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D268" t="str">
-        <v>09:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E268" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F268" t="str">
-        <v>00:22</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G268" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H268" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I268" t="str">
         <v/>
@@ -9784,28 +9784,28 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B269" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C269" t="str">
-        <v>10-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D269" t="str">
-        <v>08:43</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E269" t="str">
-        <v>17:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F269" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G269" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H269" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I269" t="str">
         <v/>
@@ -9819,28 +9819,28 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B270" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C270" t="str">
-        <v>11-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D270" t="str">
-        <v>09:44</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E270" t="str">
-        <v>17:05</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F270" t="str">
-        <v>00:34</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G270" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H270" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I270" t="str">
         <v/>
@@ -9854,28 +9854,28 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B271" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C271" t="str">
-        <v>12-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D271" t="str">
-        <v>09:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E271" t="str">
-        <v>17:12</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F271" t="str">
-        <v>00:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G271" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H271" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I271" t="str">
         <v/>
@@ -9889,13 +9889,13 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B272" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C272" t="str">
-        <v>13-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D272" t="str">
         <v xml:space="preserve"> </v>
@@ -9924,28 +9924,28 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B273" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C273" t="str">
-        <v>14-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D273" t="str">
-        <v>08:59</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E273" t="str">
-        <v>17:23</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F273" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G273" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H273" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I273" t="str">
         <v/>
@@ -9959,28 +9959,28 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B274" t="str">
-        <v>Amr</v>
+        <v>Habiba</v>
       </c>
       <c r="C274" t="str">
-        <v>17-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D274" t="str">
-        <v>09:39</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E274" t="str">
-        <v>17:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F274" t="str">
-        <v>00:29</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G274" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H274" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I274" t="str">
         <v/>
@@ -9994,28 +9994,28 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B275" t="str">
-        <v>Amr</v>
+        <v>H</v>
       </c>
       <c r="C275" t="str">
-        <v>18-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D275" t="str">
-        <v>10:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E275" t="str">
-        <v>18:24</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F275" t="str">
-        <v>00:54</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G275" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H275" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I275" t="str">
         <v/>
@@ -10029,28 +10029,28 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B276" t="str">
-        <v>Amr</v>
+        <v>H</v>
       </c>
       <c r="C276" t="str">
-        <v>19-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D276" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:12</v>
       </c>
       <c r="E276" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:05</v>
       </c>
       <c r="F276" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:02</v>
       </c>
       <c r="G276" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H276" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I276" t="str">
         <v/>
@@ -10064,22 +10064,22 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B277" t="str">
-        <v>Amr</v>
+        <v>H</v>
       </c>
       <c r="C277" t="str">
-        <v>20-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D277" t="str">
-        <v>09:12</v>
+        <v>09:27</v>
       </c>
       <c r="E277" t="str">
-        <v>17:00</v>
+        <v>17:19</v>
       </c>
       <c r="F277" t="str">
-        <v>00:02</v>
+        <v>00:17</v>
       </c>
       <c r="G277" t="str">
         <v/>
@@ -10099,28 +10099,28 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B278" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C278" t="str">
-        <v>21-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D278" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:20</v>
       </c>
       <c r="E278" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:11</v>
       </c>
       <c r="F278" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:10</v>
       </c>
       <c r="G278" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:49</v>
       </c>
       <c r="H278" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I278" t="str">
         <v/>
@@ -10134,28 +10134,28 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B279" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C279" t="str">
-        <v>22-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D279" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:59</v>
       </c>
       <c r="E279" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:02</v>
       </c>
       <c r="F279" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G279" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H279" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I279" t="str">
         <v/>
@@ -10169,28 +10169,28 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B280" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C280" t="str">
-        <v>23-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D280" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:12</v>
       </c>
       <c r="E280" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:08</v>
       </c>
       <c r="F280" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:02</v>
       </c>
       <c r="G280" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H280" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I280" t="str">
         <v/>
@@ -10204,28 +10204,28 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B281" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C281" t="str">
-        <v>24-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D281" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:15</v>
       </c>
       <c r="E281" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:59</v>
       </c>
       <c r="F281" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:05</v>
       </c>
       <c r="G281" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:01</v>
       </c>
       <c r="H281" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I281" t="str">
         <v/>
@@ -10239,28 +10239,28 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B282" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C282" t="str">
-        <v>27-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D282" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:25</v>
       </c>
       <c r="E282" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:06</v>
       </c>
       <c r="F282" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:15</v>
       </c>
       <c r="G282" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H282" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I282" t="str">
         <v/>
@@ -10274,28 +10274,28 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B283" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C283" t="str">
-        <v>28-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D283" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:18</v>
       </c>
       <c r="E283" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:07</v>
       </c>
       <c r="F283" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:08</v>
       </c>
       <c r="G283" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H283" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I283" t="str">
         <v/>
@@ -10309,28 +10309,28 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B284" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C284" t="str">
-        <v>29-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D284" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:09</v>
       </c>
       <c r="E284" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F284" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G284" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H284" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I284" t="str">
         <v/>
@@ -10344,28 +10344,28 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B285" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C285" t="str">
-        <v>30-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D285" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:09</v>
       </c>
       <c r="E285" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:07</v>
       </c>
       <c r="F285" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G285" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H285" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I285" t="str">
         <v/>
@@ -10379,28 +10379,28 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B286" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C286" t="str">
-        <v>31-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D286" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:02</v>
       </c>
       <c r="E286" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:07</v>
       </c>
       <c r="F286" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G286" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H286" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I286" t="str">
         <v/>
@@ -10414,28 +10414,28 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B287" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C287" t="str">
-        <v>03-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D287" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:30</v>
       </c>
       <c r="E287" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:17</v>
       </c>
       <c r="F287" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:20</v>
       </c>
       <c r="G287" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H287" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I287" t="str">
         <v/>
@@ -10449,28 +10449,28 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B288" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C288" t="str">
-        <v>04-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D288" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:01</v>
       </c>
       <c r="E288" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:04</v>
       </c>
       <c r="F288" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G288" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H288" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I288" t="str">
         <v/>
@@ -10484,28 +10484,28 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B289" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C289" t="str">
-        <v>05-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D289" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:18</v>
       </c>
       <c r="E289" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:16</v>
       </c>
       <c r="F289" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:08</v>
       </c>
       <c r="G289" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H289" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I289" t="str">
         <v/>
@@ -10519,28 +10519,28 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B290" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C290" t="str">
-        <v>06-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D290" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:13</v>
       </c>
       <c r="E290" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:19</v>
       </c>
       <c r="F290" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:03</v>
       </c>
       <c r="G290" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H290" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I290" t="str">
         <v/>
@@ -10554,28 +10554,28 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B291" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C291" t="str">
-        <v>07-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D291" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:09</v>
       </c>
       <c r="E291" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:36</v>
       </c>
       <c r="F291" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G291" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H291" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I291" t="str">
         <v/>
@@ -10589,28 +10589,28 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B292" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C292" t="str">
-        <v>10-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D292" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:30</v>
       </c>
       <c r="E292" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:23</v>
       </c>
       <c r="F292" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:20</v>
       </c>
       <c r="G292" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H292" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I292" t="str">
         <v/>
@@ -10624,28 +10624,28 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B293" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C293" t="str">
-        <v>11-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D293" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:13</v>
       </c>
       <c r="E293" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:07</v>
       </c>
       <c r="F293" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:03</v>
       </c>
       <c r="G293" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H293" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I293" t="str">
         <v/>
@@ -10659,28 +10659,28 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B294" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C294" t="str">
-        <v>12-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D294" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:04</v>
       </c>
       <c r="E294" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:15</v>
       </c>
       <c r="F294" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G294" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H294" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I294" t="str">
         <v/>
@@ -10694,28 +10694,28 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B295" t="str">
-        <v>Habiba</v>
+        <v>H</v>
       </c>
       <c r="C295" t="str">
-        <v>13-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D295" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:11</v>
       </c>
       <c r="E295" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F295" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:01</v>
       </c>
       <c r="G295" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H295" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I295" t="str">
         <v/>
@@ -10729,13 +10729,13 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B296" t="str">
-        <v>Habiba</v>
+        <v>M Yehia</v>
       </c>
       <c r="C296" t="str">
-        <v>14-Sep-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D296" t="str">
         <v xml:space="preserve"> </v>
@@ -10764,28 +10764,28 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B297" t="str">
-        <v>Habiba</v>
+        <v>M Yehia</v>
       </c>
       <c r="C297" t="str">
-        <v>17-Sep-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D297" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:57</v>
       </c>
       <c r="E297" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F297" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G297" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H297" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I297" t="str">
         <v/>
@@ -10799,28 +10799,28 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B298" t="str">
-        <v>Habiba</v>
+        <v>M Yehia</v>
       </c>
       <c r="C298" t="str">
-        <v>18-Sep-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D298" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:53</v>
       </c>
       <c r="E298" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F298" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G298" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H298" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I298" t="str">
         <v/>
@@ -10834,28 +10834,28 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B299" t="str">
-        <v>Habiba</v>
+        <v>M Yehia</v>
       </c>
       <c r="C299" t="str">
-        <v>19-Sep-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D299" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:57</v>
       </c>
       <c r="E299" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:06</v>
       </c>
       <c r="F299" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G299" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H299" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I299" t="str">
         <v/>
@@ -10869,28 +10869,28 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B300" t="str">
-        <v>Habiba</v>
+        <v>M Yehia</v>
       </c>
       <c r="C300" t="str">
-        <v>20-Sep-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D300" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:55</v>
       </c>
       <c r="E300" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:03</v>
       </c>
       <c r="F300" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G300" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H300" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I300" t="str">
         <v/>
@@ -10904,25 +10904,25 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B301" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C301" t="str">
-        <v>21-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D301" t="str">
-        <v>09:09</v>
+        <v>08:38</v>
       </c>
       <c r="E301" t="str">
-        <v>16:39</v>
+        <v>17:01</v>
       </c>
       <c r="F301" t="str">
         <v/>
       </c>
       <c r="G301" t="str">
-        <v>00:21</v>
+        <v/>
       </c>
       <c r="H301" t="str">
         <v/>
@@ -10939,22 +10939,22 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B302" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C302" t="str">
-        <v>22-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D302" t="str">
-        <v>09:14</v>
+        <v>08:58</v>
       </c>
       <c r="E302" t="str">
-        <v>17:20</v>
+        <v>17:00</v>
       </c>
       <c r="F302" t="str">
-        <v>00:04</v>
+        <v/>
       </c>
       <c r="G302" t="str">
         <v/>
@@ -10974,22 +10974,22 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B303" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C303" t="str">
-        <v>23-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D303" t="str">
-        <v>09:27</v>
+        <v>09:00</v>
       </c>
       <c r="E303" t="str">
-        <v>17:00</v>
+        <v>17:05</v>
       </c>
       <c r="F303" t="str">
-        <v>00:17</v>
+        <v/>
       </c>
       <c r="G303" t="str">
         <v/>
@@ -11009,22 +11009,22 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B304" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C304" t="str">
-        <v>24-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D304" t="str">
-        <v>17:23</v>
+        <v>08:52</v>
       </c>
       <c r="E304" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F304" t="str">
-        <v>08:13</v>
+        <v/>
       </c>
       <c r="G304" t="str">
         <v xml:space="preserve"> </v>
@@ -11044,25 +11044,25 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B305" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C305" t="str">
-        <v>27-Aug-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D305" t="str">
-        <v>09:12</v>
+        <v>09:01</v>
       </c>
       <c r="E305" t="str">
-        <v>17:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F305" t="str">
-        <v>00:02</v>
+        <v/>
       </c>
       <c r="G305" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H305" t="str">
         <v/>
@@ -11079,22 +11079,22 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B306" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C306" t="str">
-        <v>28-Aug-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D306" t="str">
-        <v>09:15</v>
+        <v>08:58</v>
       </c>
       <c r="E306" t="str">
         <v>17:00</v>
       </c>
       <c r="F306" t="str">
-        <v>00:05</v>
+        <v/>
       </c>
       <c r="G306" t="str">
         <v/>
@@ -11114,19 +11114,19 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B307" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C307" t="str">
-        <v>29-Aug-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D307" t="str">
-        <v>08:58</v>
+        <v>08:57</v>
       </c>
       <c r="E307" t="str">
-        <v>17:15</v>
+        <v>17:01</v>
       </c>
       <c r="F307" t="str">
         <v/>
@@ -11149,25 +11149,25 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B308" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C308" t="str">
-        <v>30-Aug-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D308" t="str">
-        <v>09:18</v>
+        <v>08:44</v>
       </c>
       <c r="E308" t="str">
-        <v>17:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F308" t="str">
-        <v>00:08</v>
+        <v/>
       </c>
       <c r="G308" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H308" t="str">
         <v/>
@@ -11184,28 +11184,28 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B309" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C309" t="str">
-        <v>31-Aug-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D309" t="str">
-        <v>09:12</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E309" t="str">
-        <v>17:19</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F309" t="str">
-        <v>00:02</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G309" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H309" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I309" t="str">
         <v/>
@@ -11219,19 +11219,19 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B310" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C310" t="str">
-        <v>03-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D310" t="str">
-        <v>09:03</v>
+        <v>08:48</v>
       </c>
       <c r="E310" t="str">
-        <v>17:06</v>
+        <v>17:05</v>
       </c>
       <c r="F310" t="str">
         <v/>
@@ -11254,19 +11254,19 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B311" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C311" t="str">
-        <v>04-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D311" t="str">
-        <v>09:06</v>
+        <v>08:58</v>
       </c>
       <c r="E311" t="str">
-        <v>17:08</v>
+        <v>17:00</v>
       </c>
       <c r="F311" t="str">
         <v/>
@@ -11289,22 +11289,22 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B312" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C312" t="str">
-        <v>05-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D312" t="str">
-        <v>09:15</v>
+        <v>08:58</v>
       </c>
       <c r="E312" t="str">
-        <v>17:04</v>
+        <v>17:01</v>
       </c>
       <c r="F312" t="str">
-        <v>00:05</v>
+        <v/>
       </c>
       <c r="G312" t="str">
         <v/>
@@ -11324,19 +11324,19 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B313" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C313" t="str">
-        <v>06-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D313" t="str">
-        <v>09:09</v>
+        <v>08:57</v>
       </c>
       <c r="E313" t="str">
-        <v>17:28</v>
+        <v>17:01</v>
       </c>
       <c r="F313" t="str">
         <v/>
@@ -11359,22 +11359,22 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B314" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C314" t="str">
-        <v>07-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D314" t="str">
-        <v>09:18</v>
+        <v>08:49</v>
       </c>
       <c r="E314" t="str">
-        <v>17:03</v>
+        <v>17:17</v>
       </c>
       <c r="F314" t="str">
-        <v>00:08</v>
+        <v/>
       </c>
       <c r="G314" t="str">
         <v/>
@@ -11394,25 +11394,25 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B315" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C315" t="str">
-        <v>10-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D315" t="str">
-        <v>08:57</v>
+        <v>08:52</v>
       </c>
       <c r="E315" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:00</v>
       </c>
       <c r="F315" t="str">
         <v/>
       </c>
       <c r="G315" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H315" t="str">
         <v/>
@@ -11429,28 +11429,28 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B316" t="str">
-        <v>H</v>
+        <v>M Yehia</v>
       </c>
       <c r="C316" t="str">
-        <v>11-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D316" t="str">
-        <v>09:18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E316" t="str">
-        <v>17:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F316" t="str">
-        <v>00:08</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G316" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H316" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I316" t="str">
         <v/>
@@ -11459,1062 +11459,12 @@
         <v/>
       </c>
       <c r="K316" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317">
-        <v>17</v>
-      </c>
-      <c r="B317" t="str">
-        <v>H</v>
-      </c>
-      <c r="C317" t="str">
-        <v>12-Sep-23</v>
-      </c>
-      <c r="D317" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="E317" t="str">
-        <v>17:03</v>
-      </c>
-      <c r="F317" t="str">
-        <v/>
-      </c>
-      <c r="G317" t="str">
-        <v/>
-      </c>
-      <c r="H317" t="str">
-        <v/>
-      </c>
-      <c r="I317" t="str">
-        <v/>
-      </c>
-      <c r="J317" t="str">
-        <v/>
-      </c>
-      <c r="K317" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318">
-        <v>17</v>
-      </c>
-      <c r="B318" t="str">
-        <v>H</v>
-      </c>
-      <c r="C318" t="str">
-        <v>13-Sep-23</v>
-      </c>
-      <c r="D318" t="str">
-        <v>09:10</v>
-      </c>
-      <c r="E318" t="str">
-        <v>16:56</v>
-      </c>
-      <c r="F318" t="str">
-        <v/>
-      </c>
-      <c r="G318" t="str">
-        <v>00:04</v>
-      </c>
-      <c r="H318" t="str">
-        <v/>
-      </c>
-      <c r="I318" t="str">
-        <v/>
-      </c>
-      <c r="J318" t="str">
-        <v/>
-      </c>
-      <c r="K318" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319">
-        <v>17</v>
-      </c>
-      <c r="B319" t="str">
-        <v>H</v>
-      </c>
-      <c r="C319" t="str">
-        <v>14-Sep-23</v>
-      </c>
-      <c r="D319" t="str">
-        <v>09:16</v>
-      </c>
-      <c r="E319" t="str">
-        <v>16:36</v>
-      </c>
-      <c r="F319" t="str">
-        <v>00:06</v>
-      </c>
-      <c r="G319" t="str">
-        <v>00:24</v>
-      </c>
-      <c r="H319" t="str">
-        <v/>
-      </c>
-      <c r="I319" t="str">
-        <v/>
-      </c>
-      <c r="J319" t="str">
-        <v/>
-      </c>
-      <c r="K319" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320">
-        <v>17</v>
-      </c>
-      <c r="B320" t="str">
-        <v>H</v>
-      </c>
-      <c r="C320" t="str">
-        <v>17-Sep-23</v>
-      </c>
-      <c r="D320" t="str">
-        <v>09:23</v>
-      </c>
-      <c r="E320" t="str">
-        <v>16:59</v>
-      </c>
-      <c r="F320" t="str">
-        <v>00:13</v>
-      </c>
-      <c r="G320" t="str">
-        <v>00:01</v>
-      </c>
-      <c r="H320" t="str">
-        <v/>
-      </c>
-      <c r="I320" t="str">
-        <v/>
-      </c>
-      <c r="J320" t="str">
-        <v/>
-      </c>
-      <c r="K320" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321">
-        <v>17</v>
-      </c>
-      <c r="B321" t="str">
-        <v>H</v>
-      </c>
-      <c r="C321" t="str">
-        <v>18-Sep-23</v>
-      </c>
-      <c r="D321" t="str">
-        <v>09:02</v>
-      </c>
-      <c r="E321" t="str">
-        <v>17:05</v>
-      </c>
-      <c r="F321" t="str">
-        <v/>
-      </c>
-      <c r="G321" t="str">
-        <v/>
-      </c>
-      <c r="H321" t="str">
-        <v/>
-      </c>
-      <c r="I321" t="str">
-        <v/>
-      </c>
-      <c r="J321" t="str">
-        <v/>
-      </c>
-      <c r="K321" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322">
-        <v>17</v>
-      </c>
-      <c r="B322" t="str">
-        <v>H</v>
-      </c>
-      <c r="C322" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D322" t="str">
-        <v>09:16</v>
-      </c>
-      <c r="E322" t="str">
-        <v>17:24</v>
-      </c>
-      <c r="F322" t="str">
-        <v>00:06</v>
-      </c>
-      <c r="G322" t="str">
-        <v/>
-      </c>
-      <c r="H322" t="str">
-        <v/>
-      </c>
-      <c r="I322" t="str">
-        <v/>
-      </c>
-      <c r="J322" t="str">
-        <v/>
-      </c>
-      <c r="K322" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323">
-        <v>17</v>
-      </c>
-      <c r="B323" t="str">
-        <v>H</v>
-      </c>
-      <c r="C323" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D323" t="str">
-        <v>09:08</v>
-      </c>
-      <c r="E323" t="str">
-        <v>16:11</v>
-      </c>
-      <c r="F323" t="str">
-        <v/>
-      </c>
-      <c r="G323" t="str">
-        <v>00:49</v>
-      </c>
-      <c r="H323" t="str">
-        <v/>
-      </c>
-      <c r="I323" t="str">
-        <v/>
-      </c>
-      <c r="J323" t="str">
-        <v/>
-      </c>
-      <c r="K323" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324">
-        <v>18</v>
-      </c>
-      <c r="B324" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C324" t="str">
-        <v>21-Aug-23</v>
-      </c>
-      <c r="D324" t="str">
-        <v>08:52</v>
-      </c>
-      <c r="E324" t="str">
-        <v>16:47</v>
-      </c>
-      <c r="F324" t="str">
-        <v/>
-      </c>
-      <c r="G324" t="str">
-        <v>00:13</v>
-      </c>
-      <c r="H324" t="str">
-        <v/>
-      </c>
-      <c r="I324" t="str">
-        <v/>
-      </c>
-      <c r="J324" t="str">
-        <v/>
-      </c>
-      <c r="K324" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325">
-        <v>18</v>
-      </c>
-      <c r="B325" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C325" t="str">
-        <v>22-Aug-23</v>
-      </c>
-      <c r="D325" t="str">
-        <v>08:56</v>
-      </c>
-      <c r="E325" t="str">
-        <v>17:06</v>
-      </c>
-      <c r="F325" t="str">
-        <v/>
-      </c>
-      <c r="G325" t="str">
-        <v/>
-      </c>
-      <c r="H325" t="str">
-        <v/>
-      </c>
-      <c r="I325" t="str">
-        <v/>
-      </c>
-      <c r="J325" t="str">
-        <v/>
-      </c>
-      <c r="K325" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326">
-        <v>18</v>
-      </c>
-      <c r="B326" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C326" t="str">
-        <v>23-Aug-23</v>
-      </c>
-      <c r="D326" t="str">
-        <v>08:57</v>
-      </c>
-      <c r="E326" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F326" t="str">
-        <v/>
-      </c>
-      <c r="G326" t="str">
-        <v/>
-      </c>
-      <c r="H326" t="str">
-        <v/>
-      </c>
-      <c r="I326" t="str">
-        <v/>
-      </c>
-      <c r="J326" t="str">
-        <v/>
-      </c>
-      <c r="K326" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327">
-        <v>18</v>
-      </c>
-      <c r="B327" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C327" t="str">
-        <v>24-Aug-23</v>
-      </c>
-      <c r="D327" t="str">
-        <v>08:45</v>
-      </c>
-      <c r="E327" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F327" t="str">
-        <v/>
-      </c>
-      <c r="G327" t="str">
-        <v/>
-      </c>
-      <c r="H327" t="str">
-        <v/>
-      </c>
-      <c r="I327" t="str">
-        <v/>
-      </c>
-      <c r="J327" t="str">
-        <v/>
-      </c>
-      <c r="K327" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328">
-        <v>18</v>
-      </c>
-      <c r="B328" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C328" t="str">
-        <v>27-Aug-23</v>
-      </c>
-      <c r="D328" t="str">
-        <v>08:58</v>
-      </c>
-      <c r="E328" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F328" t="str">
-        <v/>
-      </c>
-      <c r="G328" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H328" t="str">
-        <v/>
-      </c>
-      <c r="I328" t="str">
-        <v/>
-      </c>
-      <c r="J328" t="str">
-        <v/>
-      </c>
-      <c r="K328" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329">
-        <v>18</v>
-      </c>
-      <c r="B329" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C329" t="str">
-        <v>28-Aug-23</v>
-      </c>
-      <c r="D329" t="str">
-        <v>08:53</v>
-      </c>
-      <c r="E329" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F329" t="str">
-        <v/>
-      </c>
-      <c r="G329" t="str">
-        <v/>
-      </c>
-      <c r="H329" t="str">
-        <v/>
-      </c>
-      <c r="I329" t="str">
-        <v/>
-      </c>
-      <c r="J329" t="str">
-        <v/>
-      </c>
-      <c r="K329" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330">
-        <v>18</v>
-      </c>
-      <c r="B330" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C330" t="str">
-        <v>29-Aug-23</v>
-      </c>
-      <c r="D330" t="str">
-        <v>17:04</v>
-      </c>
-      <c r="E330" t="str">
-        <v>17:06</v>
-      </c>
-      <c r="F330" t="str">
-        <v>07:54</v>
-      </c>
-      <c r="G330" t="str">
-        <v/>
-      </c>
-      <c r="H330" t="str">
-        <v/>
-      </c>
-      <c r="I330" t="str">
-        <v/>
-      </c>
-      <c r="J330" t="str">
-        <v/>
-      </c>
-      <c r="K330" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331">
-        <v>18</v>
-      </c>
-      <c r="B331" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C331" t="str">
-        <v>30-Aug-23</v>
-      </c>
-      <c r="D331" t="str">
-        <v>08:48</v>
-      </c>
-      <c r="E331" t="str">
-        <v>17:08</v>
-      </c>
-      <c r="F331" t="str">
-        <v/>
-      </c>
-      <c r="G331" t="str">
-        <v/>
-      </c>
-      <c r="H331" t="str">
-        <v/>
-      </c>
-      <c r="I331" t="str">
-        <v/>
-      </c>
-      <c r="J331" t="str">
-        <v/>
-      </c>
-      <c r="K331" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332">
-        <v>18</v>
-      </c>
-      <c r="B332" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C332" t="str">
-        <v>31-Aug-23</v>
-      </c>
-      <c r="D332" t="str">
-        <v>08:46</v>
-      </c>
-      <c r="E332" t="str">
-        <v>13:25</v>
-      </c>
-      <c r="F332" t="str">
-        <v/>
-      </c>
-      <c r="G332" t="str">
-        <v>03:35</v>
-      </c>
-      <c r="H332" t="str">
-        <v/>
-      </c>
-      <c r="I332" t="str">
-        <v/>
-      </c>
-      <c r="J332" t="str">
-        <v/>
-      </c>
-      <c r="K332" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333">
-        <v>18</v>
-      </c>
-      <c r="B333" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C333" t="str">
-        <v>03-Sep-23</v>
-      </c>
-      <c r="D333" t="str">
-        <v>09:01</v>
-      </c>
-      <c r="E333" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F333" t="str">
-        <v/>
-      </c>
-      <c r="G333" t="str">
-        <v/>
-      </c>
-      <c r="H333" t="str">
-        <v/>
-      </c>
-      <c r="I333" t="str">
-        <v/>
-      </c>
-      <c r="J333" t="str">
-        <v/>
-      </c>
-      <c r="K333" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334">
-        <v>18</v>
-      </c>
-      <c r="B334" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C334" t="str">
-        <v>04-Sep-23</v>
-      </c>
-      <c r="D334" t="str">
-        <v>08:55</v>
-      </c>
-      <c r="E334" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F334" t="str">
-        <v/>
-      </c>
-      <c r="G334" t="str">
-        <v/>
-      </c>
-      <c r="H334" t="str">
-        <v/>
-      </c>
-      <c r="I334" t="str">
-        <v/>
-      </c>
-      <c r="J334" t="str">
-        <v/>
-      </c>
-      <c r="K334" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335">
-        <v>18</v>
-      </c>
-      <c r="B335" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C335" t="str">
-        <v>05-Sep-23</v>
-      </c>
-      <c r="D335" t="str">
-        <v>08:50</v>
-      </c>
-      <c r="E335" t="str">
-        <v>17:15</v>
-      </c>
-      <c r="F335" t="str">
-        <v/>
-      </c>
-      <c r="G335" t="str">
-        <v/>
-      </c>
-      <c r="H335" t="str">
-        <v/>
-      </c>
-      <c r="I335" t="str">
-        <v/>
-      </c>
-      <c r="J335" t="str">
-        <v/>
-      </c>
-      <c r="K335" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336">
-        <v>18</v>
-      </c>
-      <c r="B336" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C336" t="str">
-        <v>06-Sep-23</v>
-      </c>
-      <c r="D336" t="str">
-        <v>08:52</v>
-      </c>
-      <c r="E336" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F336" t="str">
-        <v/>
-      </c>
-      <c r="G336" t="str">
-        <v/>
-      </c>
-      <c r="H336" t="str">
-        <v/>
-      </c>
-      <c r="I336" t="str">
-        <v/>
-      </c>
-      <c r="J336" t="str">
-        <v/>
-      </c>
-      <c r="K336" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337">
-        <v>18</v>
-      </c>
-      <c r="B337" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C337" t="str">
-        <v>07-Sep-23</v>
-      </c>
-      <c r="D337" t="str">
-        <v>08:51</v>
-      </c>
-      <c r="E337" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F337" t="str">
-        <v/>
-      </c>
-      <c r="G337" t="str">
-        <v/>
-      </c>
-      <c r="H337" t="str">
-        <v/>
-      </c>
-      <c r="I337" t="str">
-        <v/>
-      </c>
-      <c r="J337" t="str">
-        <v/>
-      </c>
-      <c r="K337" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338">
-        <v>18</v>
-      </c>
-      <c r="B338" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C338" t="str">
-        <v>10-Sep-23</v>
-      </c>
-      <c r="D338" t="str">
-        <v>17:02</v>
-      </c>
-      <c r="E338" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F338" t="str">
-        <v>07:52</v>
-      </c>
-      <c r="G338" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H338" t="str">
-        <v/>
-      </c>
-      <c r="I338" t="str">
-        <v/>
-      </c>
-      <c r="J338" t="str">
-        <v/>
-      </c>
-      <c r="K338" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339">
-        <v>18</v>
-      </c>
-      <c r="B339" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C339" t="str">
-        <v>11-Sep-23</v>
-      </c>
-      <c r="D339" t="str">
-        <v>08:52</v>
-      </c>
-      <c r="E339" t="str">
-        <v>17:04</v>
-      </c>
-      <c r="F339" t="str">
-        <v/>
-      </c>
-      <c r="G339" t="str">
-        <v/>
-      </c>
-      <c r="H339" t="str">
-        <v/>
-      </c>
-      <c r="I339" t="str">
-        <v/>
-      </c>
-      <c r="J339" t="str">
-        <v/>
-      </c>
-      <c r="K339" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340">
-        <v>18</v>
-      </c>
-      <c r="B340" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C340" t="str">
-        <v>12-Sep-23</v>
-      </c>
-      <c r="D340" t="str">
-        <v>08:50</v>
-      </c>
-      <c r="E340" t="str">
-        <v>17:06</v>
-      </c>
-      <c r="F340" t="str">
-        <v/>
-      </c>
-      <c r="G340" t="str">
-        <v/>
-      </c>
-      <c r="H340" t="str">
-        <v/>
-      </c>
-      <c r="I340" t="str">
-        <v/>
-      </c>
-      <c r="J340" t="str">
-        <v/>
-      </c>
-      <c r="K340" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341">
-        <v>18</v>
-      </c>
-      <c r="B341" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C341" t="str">
-        <v>13-Sep-23</v>
-      </c>
-      <c r="D341" t="str">
-        <v>08:46</v>
-      </c>
-      <c r="E341" t="str">
-        <v>16:53</v>
-      </c>
-      <c r="F341" t="str">
-        <v/>
-      </c>
-      <c r="G341" t="str">
-        <v>00:07</v>
-      </c>
-      <c r="H341" t="str">
-        <v/>
-      </c>
-      <c r="I341" t="str">
-        <v/>
-      </c>
-      <c r="J341" t="str">
-        <v/>
-      </c>
-      <c r="K341" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342">
-        <v>18</v>
-      </c>
-      <c r="B342" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C342" t="str">
-        <v>14-Sep-23</v>
-      </c>
-      <c r="D342" t="str">
-        <v>08:45</v>
-      </c>
-      <c r="E342" t="str">
-        <v>16:36</v>
-      </c>
-      <c r="F342" t="str">
-        <v/>
-      </c>
-      <c r="G342" t="str">
-        <v>00:24</v>
-      </c>
-      <c r="H342" t="str">
-        <v/>
-      </c>
-      <c r="I342" t="str">
-        <v/>
-      </c>
-      <c r="J342" t="str">
-        <v/>
-      </c>
-      <c r="K342" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343">
-        <v>18</v>
-      </c>
-      <c r="B343" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C343" t="str">
-        <v>17-Sep-23</v>
-      </c>
-      <c r="D343" t="str">
-        <v>08:51</v>
-      </c>
-      <c r="E343" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F343" t="str">
-        <v/>
-      </c>
-      <c r="G343" t="str">
-        <v/>
-      </c>
-      <c r="H343" t="str">
-        <v/>
-      </c>
-      <c r="I343" t="str">
-        <v/>
-      </c>
-      <c r="J343" t="str">
-        <v/>
-      </c>
-      <c r="K343" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344">
-        <v>18</v>
-      </c>
-      <c r="B344" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C344" t="str">
-        <v>18-Sep-23</v>
-      </c>
-      <c r="D344" t="str">
-        <v>08:53</v>
-      </c>
-      <c r="E344" t="str">
-        <v>17:03</v>
-      </c>
-      <c r="F344" t="str">
-        <v/>
-      </c>
-      <c r="G344" t="str">
-        <v/>
-      </c>
-      <c r="H344" t="str">
-        <v/>
-      </c>
-      <c r="I344" t="str">
-        <v/>
-      </c>
-      <c r="J344" t="str">
-        <v/>
-      </c>
-      <c r="K344" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345">
-        <v>18</v>
-      </c>
-      <c r="B345" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C345" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D345" t="str">
-        <v>08:50</v>
-      </c>
-      <c r="E345" t="str">
-        <v>17:05</v>
-      </c>
-      <c r="F345" t="str">
-        <v/>
-      </c>
-      <c r="G345" t="str">
-        <v/>
-      </c>
-      <c r="H345" t="str">
-        <v/>
-      </c>
-      <c r="I345" t="str">
-        <v/>
-      </c>
-      <c r="J345" t="str">
-        <v/>
-      </c>
-      <c r="K345" t="str">
-        <v>penta3d</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346">
-        <v>18</v>
-      </c>
-      <c r="B346" t="str">
-        <v>M Yehia</v>
-      </c>
-      <c r="C346" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D346" t="str">
-        <v>08:49</v>
-      </c>
-      <c r="E346" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F346" t="str">
-        <v/>
-      </c>
-      <c r="G346" t="str">
-        <v/>
-      </c>
-      <c r="H346" t="str">
-        <v/>
-      </c>
-      <c r="I346" t="str">
-        <v/>
-      </c>
-      <c r="J346" t="str">
-        <v/>
-      </c>
-      <c r="K346" t="str">
         <v>penta3d</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K346"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K316"/>
   </ignoredErrors>
 </worksheet>
 </file>